--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>project4</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>project5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -468,19 +473,22 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -490,10 +498,10 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -502,6 +510,9 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -515,16 +526,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -534,19 +548,22 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -565,9 +582,12 @@
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -578,19 +598,22 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -600,7 +623,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -613,6 +636,9 @@
       </c>
       <c r="F8" t="b">
         <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -628,13 +654,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -653,10 +682,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -666,18 +698,21 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -688,18 +723,21 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -713,15 +751,18 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -732,19 +773,22 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -754,18 +798,21 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -776,19 +823,22 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -807,9 +857,12 @@
         <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -820,7 +873,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -829,9 +882,12 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -845,16 +901,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -867,15 +926,18 @@
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -900,6 +962,9 @@
       <c r="F21" t="b">
         <v>1</v>
       </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -911,16 +976,19 @@
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -930,19 +998,22 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -966,6 +1037,9 @@
       <c r="F24" t="b">
         <v>0</v>
       </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -974,19 +1048,22 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -996,19 +1073,22 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1018,18 +1098,21 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1054,6 +1137,9 @@
       <c r="F28" t="b">
         <v>0</v>
       </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1062,19 +1148,22 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1084,19 +1173,22 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1106,19 +1198,22 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1128,10 +1223,10 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1140,7 +1235,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1164,6 +1262,9 @@
       <c r="F33" t="b">
         <v>0</v>
       </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1172,19 +1273,22 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1197,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1206,6 +1310,9 @@
         <v>0</v>
       </c>
       <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1222,12 +1329,15 @@
         <v>0</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1238,19 +1348,22 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1260,18 +1373,21 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1282,19 +1398,22 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1304,18 +1423,21 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1329,15 +1451,18 @@
         <v>0</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1351,16 +1476,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1373,15 +1501,18 @@
         <v>0</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1398,12 +1529,15 @@
         <v>0</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1414,19 +1548,22 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1436,19 +1573,22 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1472,6 +1612,9 @@
       <c r="F47" t="b">
         <v>0</v>
       </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1480,19 +1623,22 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1505,16 +1651,19 @@
         <v>0</v>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1530,13 +1679,16 @@
         <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1546,19 +1698,22 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1568,7 +1723,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -1577,9 +1732,12 @@
         <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1590,19 +1748,22 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1621,10 +1782,13 @@
         <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1643,9 +1807,12 @@
         <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1656,19 +1823,22 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1678,19 +1848,22 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1700,19 +1873,22 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1722,19 +1898,22 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1744,7 +1923,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -1756,7 +1935,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1780,6 +1962,9 @@
       <c r="F61" t="b">
         <v>0</v>
       </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1802,6 +1987,9 @@
       <c r="F62" t="b">
         <v>0</v>
       </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1810,7 +1998,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -1822,7 +2010,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1844,7 +2035,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1866,7 +2060,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1888,7 +2085,10 @@
         <v>0</v>
       </c>
       <c r="F66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1898,19 +2098,22 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1934,6 +2137,9 @@
       <c r="F68" t="b">
         <v>0</v>
       </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1956,6 +2162,9 @@
       <c r="F69" t="b">
         <v>0</v>
       </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1964,7 +2173,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -1973,10 +2182,13 @@
         <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1998,7 +2210,10 @@
         <v>0</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2011,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -2020,7 +2235,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2030,10 +2248,10 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -2042,7 +2260,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2052,10 +2273,10 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -2064,7 +2285,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2074,19 +2298,22 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2096,19 +2323,22 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2130,7 +2360,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2143,16 +2376,19 @@
         <v>0</v>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2162,19 +2398,22 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2198,6 +2437,9 @@
       <c r="F80" t="b">
         <v>0</v>
       </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2206,19 +2448,22 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="D81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2242,6 +2487,9 @@
       <c r="F82" t="b">
         <v>0</v>
       </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2256,13 +2504,16 @@
         <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2272,19 +2523,22 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2300,13 +2554,16 @@
         <v>0</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2330,6 +2587,9 @@
       <c r="F86" t="b">
         <v>0</v>
       </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2352,6 +2612,9 @@
       <c r="F87" t="b">
         <v>0</v>
       </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2366,13 +2629,16 @@
         <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2382,19 +2648,22 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2413,10 +2682,13 @@
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2435,10 +2707,13 @@
         <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2460,7 +2735,10 @@
         <v>0</v>
       </c>
       <c r="F92" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2479,10 +2757,13 @@
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2506,6 +2787,9 @@
       <c r="F94" t="b">
         <v>0</v>
       </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2528,6 +2812,9 @@
       <c r="F95" t="b">
         <v>0</v>
       </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2550,6 +2837,9 @@
       <c r="F96" t="b">
         <v>0</v>
       </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2572,6 +2862,9 @@
       <c r="F97" t="b">
         <v>0</v>
       </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2594,6 +2887,9 @@
       <c r="F98" t="b">
         <v>0</v>
       </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2616,6 +2912,9 @@
       <c r="F99" t="b">
         <v>0</v>
       </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2638,6 +2937,9 @@
       <c r="F100" t="b">
         <v>0</v>
       </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2658,6 +2960,9 @@
         <v>0</v>
       </c>
       <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="b">
         <v>0</v>
       </c>
     </row>

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -498,22 +498,22 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -560,10 +560,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -651,16 +651,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -723,19 +723,19 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -748,22 +748,22 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -848,22 +848,22 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -973,19 +973,19 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,16 +455,6 @@
           <t>project3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>project4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>project5</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -482,13 +472,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +488,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -523,22 +501,16 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -551,19 +523,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -573,7 +539,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -582,12 +548,6 @@
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -598,21 +558,15 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -623,22 +577,16 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -659,12 +607,6 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -673,21 +615,15 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -698,7 +634,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -707,12 +643,6 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -726,18 +656,12 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -748,7 +672,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -757,13 +681,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -782,13 +700,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -798,22 +710,16 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -823,22 +729,16 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -848,21 +748,15 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -873,21 +767,15 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -904,16 +792,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -923,22 +805,16 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -948,22 +824,16 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -973,21 +843,15 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -998,22 +862,16 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1023,22 +881,16 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1051,19 +903,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1073,22 +919,16 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1109,12 +949,6 @@
       <c r="E27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1126,18 +960,12 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1151,19 +979,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1176,18 +998,12 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1204,15 +1020,9 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1223,21 +1033,15 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1248,22 +1052,16 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1284,12 +1082,6 @@
       <c r="E34" t="b">
         <v>0</v>
       </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1309,12 +1101,6 @@
       <c r="E35" t="b">
         <v>0</v>
       </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1323,22 +1109,16 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1348,22 +1128,16 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1373,22 +1147,16 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1401,18 +1169,12 @@
         <v>0</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1423,21 +1185,15 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1448,21 +1204,15 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1476,18 +1226,12 @@
         <v>0</v>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1498,21 +1242,15 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1526,19 +1264,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1551,18 +1283,12 @@
         <v>0</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1584,12 +1310,6 @@
       <c r="E46" t="b">
         <v>0</v>
       </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1598,22 +1318,16 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1629,15 +1343,9 @@
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1651,18 +1359,12 @@
         <v>0</v>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1679,15 +1381,9 @@
         <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1701,18 +1397,12 @@
         <v>0</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1729,15 +1419,9 @@
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1748,22 +1432,16 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1779,15 +1457,9 @@
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1804,15 +1476,9 @@
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1823,22 +1489,16 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1854,16 +1514,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1873,22 +1527,16 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1904,16 +1552,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1926,19 +1568,13 @@
         <v>0</v>
       </c>
       <c r="C60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1954,15 +1590,9 @@
         <v>0</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1976,19 +1606,13 @@
         <v>0</v>
       </c>
       <c r="C62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1998,22 +1622,16 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2023,22 +1641,16 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2059,12 +1671,6 @@
       <c r="E65" t="b">
         <v>0</v>
       </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2073,22 +1679,16 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2101,19 +1701,13 @@
         <v>0</v>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2129,15 +1723,9 @@
         <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2151,19 +1739,13 @@
         <v>0</v>
       </c>
       <c r="C69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2179,16 +1761,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2209,12 +1785,6 @@
       <c r="E71" t="b">
         <v>0</v>
       </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2232,13 +1802,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2259,12 +1823,6 @@
       <c r="E73" t="b">
         <v>0</v>
       </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2284,12 +1842,6 @@
       <c r="E74" t="b">
         <v>0</v>
       </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2309,12 +1861,6 @@
       <c r="E75" t="b">
         <v>0</v>
       </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2323,22 +1869,16 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2348,22 +1888,16 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2382,13 +1916,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2398,22 +1926,16 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2426,19 +1948,13 @@
         <v>0</v>
       </c>
       <c r="C80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2457,13 +1973,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2473,22 +1983,16 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2509,12 +2013,6 @@
       <c r="E83" t="b">
         <v>0</v>
       </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2526,19 +2024,13 @@
         <v>0</v>
       </c>
       <c r="C84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2559,12 +2051,6 @@
       <c r="E85" t="b">
         <v>0</v>
       </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2582,13 +2068,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2607,13 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2623,22 +2097,16 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2659,12 +2127,6 @@
       <c r="E89" t="b">
         <v>0</v>
       </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2673,22 +2135,16 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2707,13 +2163,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2732,13 +2182,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2754,16 +2198,10 @@
         <v>0</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2776,19 +2214,13 @@
         <v>0</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2798,22 +2230,16 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2834,12 +2260,6 @@
       <c r="E96" t="b">
         <v>0</v>
       </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2854,16 +2274,10 @@
         <v>0</v>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2884,12 +2298,6 @@
       <c r="E98" t="b">
         <v>0</v>
       </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2909,12 +2317,6 @@
       <c r="E99" t="b">
         <v>0</v>
       </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2934,12 +2336,6 @@
       <c r="E100" t="b">
         <v>0</v>
       </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2957,12 +2353,6 @@
         <v>0</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-      <c r="G101" t="b">
         <v>0</v>
       </c>
     </row>

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,16 @@
           <t>project3</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>project4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>project5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -463,16 +473,22 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -482,15 +498,21 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -501,16 +523,22 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +548,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -529,6 +557,12 @@
         <v>1</v>
       </c>
       <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -542,13 +576,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -561,13 +601,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -588,6 +634,12 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -596,15 +648,21 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -621,10 +679,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -634,7 +698,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -643,7 +707,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -653,16 +723,22 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -672,15 +748,21 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -691,15 +773,21 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -710,15 +798,21 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +826,18 @@
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -759,6 +859,12 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -767,7 +873,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -776,7 +882,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -795,7 +907,13 @@
         <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -814,6 +932,12 @@
         <v>1</v>
       </c>
       <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -830,10 +954,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -849,10 +979,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -862,16 +998,22 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -892,6 +1034,12 @@
       <c r="E24" t="b">
         <v>1</v>
       </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -900,15 +1048,21 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -925,9 +1079,15 @@
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -949,6 +1109,12 @@
       <c r="E27" t="b">
         <v>0</v>
       </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -957,16 +1123,22 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -976,15 +1148,21 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -998,12 +1176,18 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1025,6 +1209,12 @@
       <c r="E31" t="b">
         <v>0</v>
       </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1033,15 +1223,21 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1063,6 +1259,12 @@
       <c r="E33" t="b">
         <v>1</v>
       </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1082,6 +1284,12 @@
       <c r="E34" t="b">
         <v>0</v>
       </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1090,16 +1298,22 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1109,7 +1323,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -1118,6 +1332,12 @@
         <v>1</v>
       </c>
       <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1137,7 +1357,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1147,16 +1373,22 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1166,7 +1398,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -1176,6 +1408,12 @@
       </c>
       <c r="E39" t="b">
         <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1185,15 +1423,21 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1204,15 +1448,21 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1232,7 +1482,13 @@
         <v>1</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1245,12 +1501,18 @@
         <v>1</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1261,7 +1523,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -1270,6 +1532,12 @@
         <v>1</v>
       </c>
       <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1280,7 +1548,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -1289,7 +1557,13 @@
         <v>1</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1310,6 +1584,12 @@
       <c r="E46" t="b">
         <v>0</v>
       </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1329,6 +1609,12 @@
       <c r="E47" t="b">
         <v>1</v>
       </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1343,9 +1629,15 @@
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1359,12 +1651,18 @@
         <v>0</v>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1375,16 +1673,22 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1394,16 +1698,22 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1413,16 +1723,22 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1432,16 +1748,22 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1451,15 +1773,21 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1481,6 +1809,12 @@
       <c r="E55" t="b">
         <v>0</v>
       </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1489,16 +1823,22 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1517,7 +1857,13 @@
         <v>1</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1530,12 +1876,18 @@
         <v>1</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1552,10 +1904,16 @@
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1568,13 +1926,19 @@
         <v>0</v>
       </c>
       <c r="C60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1587,12 +1951,18 @@
         <v>0</v>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1606,13 +1976,19 @@
         <v>0</v>
       </c>
       <c r="C62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1622,16 +1998,22 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1641,7 +2023,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -1650,6 +2032,12 @@
         <v>1</v>
       </c>
       <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1671,6 +2059,12 @@
       <c r="E65" t="b">
         <v>0</v>
       </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1679,16 +2073,22 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1701,13 +2101,19 @@
         <v>0</v>
       </c>
       <c r="C67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1717,16 +2123,22 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1739,12 +2151,18 @@
         <v>0</v>
       </c>
       <c r="C69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1761,10 +2179,16 @@
         <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1785,6 +2209,12 @@
       <c r="E71" t="b">
         <v>0</v>
       </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1793,16 +2223,22 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1812,16 +2248,22 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1831,16 +2273,22 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1861,6 +2309,12 @@
       <c r="E75" t="b">
         <v>0</v>
       </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1869,16 +2323,22 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1888,16 +2348,22 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1907,16 +2373,22 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1929,13 +2401,19 @@
         <v>1</v>
       </c>
       <c r="C79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1948,13 +2426,19 @@
         <v>0</v>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1964,7 +2448,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -1973,6 +2457,12 @@
         <v>0</v>
       </c>
       <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1992,6 +2482,12 @@
         <v>1</v>
       </c>
       <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2008,9 +2504,15 @@
         <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2024,13 +2526,19 @@
         <v>0</v>
       </c>
       <c r="C84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2040,15 +2548,21 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2062,12 +2576,18 @@
         <v>0</v>
       </c>
       <c r="C86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2087,7 +2607,13 @@
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2108,6 +2634,12 @@
       <c r="E88" t="b">
         <v>1</v>
       </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2116,16 +2648,22 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2138,12 +2676,18 @@
         <v>1</v>
       </c>
       <c r="C90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
       </c>
       <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2154,15 +2698,21 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2173,15 +2723,21 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2192,16 +2748,22 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="b">
         <v>1</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2214,13 +2776,19 @@
         <v>0</v>
       </c>
       <c r="C94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2233,13 +2801,19 @@
         <v>1</v>
       </c>
       <c r="C95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2255,9 +2829,15 @@
         <v>0</v>
       </c>
       <c r="D96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2268,15 +2848,21 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
       </c>
       <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2296,6 +2882,12 @@
         <v>0</v>
       </c>
       <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2306,16 +2898,22 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2336,23 +2934,10 @@
       <c r="E100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>voter99</t>
-        </is>
-      </c>
-      <c r="B101" t="b">
-        <v>0</v>
-      </c>
-      <c r="C101" t="b">
-        <v>0</v>
-      </c>
-      <c r="D101" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" t="b">
+      <c r="F100" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" t="b">
         <v>0</v>
       </c>
     </row>

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -1,37 +1,363 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+  <si>
+    <t>project0</t>
+  </si>
+  <si>
+    <t>project1</t>
+  </si>
+  <si>
+    <t>project2</t>
+  </si>
+  <si>
+    <t>project3</t>
+  </si>
+  <si>
+    <t>project4</t>
+  </si>
+  <si>
+    <t>project5</t>
+  </si>
+  <si>
+    <t>voter0</t>
+  </si>
+  <si>
+    <t>voter1</t>
+  </si>
+  <si>
+    <t>voter2</t>
+  </si>
+  <si>
+    <t>voter3</t>
+  </si>
+  <si>
+    <t>voter4</t>
+  </si>
+  <si>
+    <t>voter5</t>
+  </si>
+  <si>
+    <t>voter6</t>
+  </si>
+  <si>
+    <t>voter7</t>
+  </si>
+  <si>
+    <t>voter8</t>
+  </si>
+  <si>
+    <t>voter9</t>
+  </si>
+  <si>
+    <t>voter10</t>
+  </si>
+  <si>
+    <t>voter11</t>
+  </si>
+  <si>
+    <t>voter12</t>
+  </si>
+  <si>
+    <t>voter13</t>
+  </si>
+  <si>
+    <t>voter14</t>
+  </si>
+  <si>
+    <t>voter15</t>
+  </si>
+  <si>
+    <t>voter16</t>
+  </si>
+  <si>
+    <t>voter17</t>
+  </si>
+  <si>
+    <t>voter18</t>
+  </si>
+  <si>
+    <t>voter19</t>
+  </si>
+  <si>
+    <t>voter20</t>
+  </si>
+  <si>
+    <t>voter21</t>
+  </si>
+  <si>
+    <t>voter22</t>
+  </si>
+  <si>
+    <t>voter23</t>
+  </si>
+  <si>
+    <t>voter24</t>
+  </si>
+  <si>
+    <t>voter25</t>
+  </si>
+  <si>
+    <t>voter26</t>
+  </si>
+  <si>
+    <t>voter27</t>
+  </si>
+  <si>
+    <t>voter28</t>
+  </si>
+  <si>
+    <t>voter29</t>
+  </si>
+  <si>
+    <t>voter30</t>
+  </si>
+  <si>
+    <t>voter31</t>
+  </si>
+  <si>
+    <t>voter32</t>
+  </si>
+  <si>
+    <t>voter33</t>
+  </si>
+  <si>
+    <t>voter34</t>
+  </si>
+  <si>
+    <t>voter35</t>
+  </si>
+  <si>
+    <t>voter36</t>
+  </si>
+  <si>
+    <t>voter37</t>
+  </si>
+  <si>
+    <t>voter38</t>
+  </si>
+  <si>
+    <t>voter39</t>
+  </si>
+  <si>
+    <t>voter40</t>
+  </si>
+  <si>
+    <t>voter41</t>
+  </si>
+  <si>
+    <t>voter42</t>
+  </si>
+  <si>
+    <t>voter43</t>
+  </si>
+  <si>
+    <t>voter44</t>
+  </si>
+  <si>
+    <t>voter45</t>
+  </si>
+  <si>
+    <t>voter46</t>
+  </si>
+  <si>
+    <t>voter47</t>
+  </si>
+  <si>
+    <t>voter48</t>
+  </si>
+  <si>
+    <t>voter49</t>
+  </si>
+  <si>
+    <t>voter50</t>
+  </si>
+  <si>
+    <t>voter51</t>
+  </si>
+  <si>
+    <t>voter52</t>
+  </si>
+  <si>
+    <t>voter53</t>
+  </si>
+  <si>
+    <t>voter54</t>
+  </si>
+  <si>
+    <t>voter55</t>
+  </si>
+  <si>
+    <t>voter56</t>
+  </si>
+  <si>
+    <t>voter57</t>
+  </si>
+  <si>
+    <t>voter58</t>
+  </si>
+  <si>
+    <t>voter59</t>
+  </si>
+  <si>
+    <t>voter60</t>
+  </si>
+  <si>
+    <t>voter61</t>
+  </si>
+  <si>
+    <t>voter62</t>
+  </si>
+  <si>
+    <t>voter63</t>
+  </si>
+  <si>
+    <t>voter64</t>
+  </si>
+  <si>
+    <t>voter65</t>
+  </si>
+  <si>
+    <t>voter66</t>
+  </si>
+  <si>
+    <t>voter67</t>
+  </si>
+  <si>
+    <t>voter68</t>
+  </si>
+  <si>
+    <t>voter69</t>
+  </si>
+  <si>
+    <t>voter70</t>
+  </si>
+  <si>
+    <t>voter71</t>
+  </si>
+  <si>
+    <t>voter72</t>
+  </si>
+  <si>
+    <t>voter73</t>
+  </si>
+  <si>
+    <t>voter74</t>
+  </si>
+  <si>
+    <t>voter75</t>
+  </si>
+  <si>
+    <t>voter76</t>
+  </si>
+  <si>
+    <t>voter77</t>
+  </si>
+  <si>
+    <t>voter78</t>
+  </si>
+  <si>
+    <t>voter79</t>
+  </si>
+  <si>
+    <t>voter80</t>
+  </si>
+  <si>
+    <t>voter81</t>
+  </si>
+  <si>
+    <t>voter82</t>
+  </si>
+  <si>
+    <t>voter83</t>
+  </si>
+  <si>
+    <t>voter84</t>
+  </si>
+  <si>
+    <t>voter85</t>
+  </si>
+  <si>
+    <t>voter86</t>
+  </si>
+  <si>
+    <t>voter87</t>
+  </si>
+  <si>
+    <t>voter88</t>
+  </si>
+  <si>
+    <t>voter89</t>
+  </si>
+  <si>
+    <t>voter90</t>
+  </si>
+  <si>
+    <t>voter91</t>
+  </si>
+  <si>
+    <t>voter92</t>
+  </si>
+  <si>
+    <t>voter93</t>
+  </si>
+  <si>
+    <t>voter94</t>
+  </si>
+  <si>
+    <t>voter95</t>
+  </si>
+  <si>
+    <t>voter96</t>
+  </si>
+  <si>
+    <t>voter97</t>
+  </si>
+  <si>
+    <t>voter98</t>
+  </si>
+  <si>
+    <t>voter99</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +372,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -421,62 +688,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>project0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>project1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>project2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>project3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>project4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>project5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>voter0</t>
-        </is>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -488,20 +735,18 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>voter1</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -513,39 +758,35 @@
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>voter2</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>voter3</t>
-        </is>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -554,29 +795,27 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>voter4</t>
-        </is>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -588,123 +827,113 @@
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>voter5</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>voter6</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>voter7</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>voter8</t>
-        </is>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>voter9</t>
-        </is>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -713,23 +942,21 @@
         <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>voter10</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -741,14 +968,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>voter11</t>
-        </is>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -757,23 +982,21 @@
         <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>voter12</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -782,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -791,20 +1014,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>voter13</t>
-        </is>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -816,23 +1037,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>voter14</t>
-        </is>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -841,17 +1060,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>voter15</t>
-        </is>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -866,36 +1083,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>voter16</t>
-        </is>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>voter17</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -916,17 +1129,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>voter18</t>
-        </is>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -941,11 +1152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>voter19</t>
-        </is>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -954,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -963,14 +1172,12 @@
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>voter20</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -985,17 +1192,15 @@
         <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>voter21</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -1007,48 +1212,44 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>voter22</t>
-        </is>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>voter23</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -1057,20 +1258,18 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>voter24</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -1088,39 +1287,35 @@
         <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>voter25</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>voter26</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -1135,17 +1330,15 @@
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>voter27</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -1154,23 +1347,21 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>voter28</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -1191,61 +1382,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>voter29</t>
-        </is>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>voter30</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>voter31</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -1266,73 +1451,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>voter32</t>
-        </is>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>voter33</t>
-        </is>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>voter34</t>
-        </is>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -1341,14 +1520,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>voter35</t>
-        </is>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -1360,67 +1537,61 @@
         <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>voter36</t>
-        </is>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>voter37</t>
-        </is>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>voter38</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B40" t="b">
         <v>0</v>
@@ -1441,11 +1612,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>voter39</t>
-        </is>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B41" t="b">
         <v>0</v>
@@ -1454,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1466,86 +1635,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>voter40</t>
-        </is>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>voter41</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>voter42</t>
-        </is>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>voter43</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -1566,23 +1727,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>voter44</t>
-        </is>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1591,61 +1750,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>voter45</t>
-        </is>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
       </c>
       <c r="C47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>voter46</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>voter47</t>
-        </is>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B49" t="b">
         <v>0</v>
@@ -1654,48 +1807,44 @@
         <v>0</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>voter48</t>
-        </is>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>voter49</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -1704,35 +1853,33 @@
         <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>voter50</t>
-        </is>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
       </c>
       <c r="C52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -1741,11 +1888,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>voter51</t>
-        </is>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B53" t="b">
         <v>0</v>
@@ -1754,26 +1899,24 @@
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>voter52</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -1782,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -1791,11 +1934,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>voter53</t>
-        </is>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B55" t="b">
         <v>0</v>
@@ -1804,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -1816,23 +1957,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>voter54</t>
-        </is>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -1841,20 +1980,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>voter55</t>
-        </is>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -1866,36 +2003,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>voter56</t>
-        </is>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>voter57</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B59" t="b">
         <v>0</v>
@@ -1916,11 +2049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>voter58</t>
-        </is>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B60" t="b">
         <v>0</v>
@@ -1932,26 +2063,24 @@
         <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>voter59</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -1960,20 +2089,18 @@
         <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>voter60</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -1982,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -1991,17 +2118,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>voter61</t>
-        </is>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -2010,20 +2135,18 @@
         <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>voter62</t>
-        </is>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -2032,20 +2155,18 @@
         <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>voter63</t>
-        </is>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B65" t="b">
         <v>0</v>
@@ -2063,64 +2184,58 @@
         <v>0</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>voter64</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B66" t="b">
         <v>0</v>
       </c>
       <c r="C66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>voter65</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>voter66</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -2132,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
@@ -2141,23 +2256,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>voter67</t>
-        </is>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -2166,11 +2279,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>voter68</t>
-        </is>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B70" t="b">
         <v>0</v>
@@ -2185,67 +2296,61 @@
         <v>0</v>
       </c>
       <c r="F70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>voter69</t>
-        </is>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>voter70</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>voter71</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
@@ -2254,23 +2359,21 @@
         <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>voter72</t>
-        </is>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
@@ -2285,67 +2388,61 @@
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>voter73</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>voter74</t>
-        </is>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>voter75</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B77" t="b">
         <v>0</v>
@@ -2360,79 +2457,73 @@
         <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>voter76</t>
-        </is>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>voter77</t>
-        </is>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
       </c>
       <c r="C79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>voter78</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
@@ -2441,11 +2532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>voter79</t>
-        </is>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B81" t="b">
         <v>1</v>
@@ -2457,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
@@ -2466,17 +2555,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>voter80</t>
-        </is>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B82" t="b">
         <v>1</v>
       </c>
       <c r="C82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
@@ -2488,14 +2575,12 @@
         <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>voter81</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B83" t="b">
         <v>0</v>
@@ -2504,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
@@ -2516,39 +2601,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>voter82</t>
-        </is>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>voter83</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -2557,95 +2638,87 @@
         <v>1</v>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>voter84</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>voter85</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>voter86</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B88" t="b">
         <v>1</v>
       </c>
       <c r="C88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>voter87</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B89" t="b">
         <v>1</v>
@@ -2654,51 +2727,47 @@
         <v>0</v>
       </c>
       <c r="D89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>voter88</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
       <c r="D90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>voter89</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -2707,20 +2776,18 @@
         <v>1</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>voter90</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B92" t="b">
         <v>1</v>
@@ -2732,70 +2799,64 @@
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>voter91</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B93" t="b">
         <v>1</v>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>voter92</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
       <c r="D94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>voter93</t>
-        </is>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B95" t="b">
         <v>1</v>
@@ -2816,61 +2877,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>voter94</t>
-        </is>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>voter95</t>
-        </is>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B97" t="b">
         <v>1</v>
       </c>
       <c r="C97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>voter96</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B98" t="b">
         <v>0</v>
@@ -2882,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -2891,11 +2946,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>voter97</t>
-        </is>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B99" t="b">
         <v>1</v>
@@ -2907,41 +2960,62 @@
         <v>1</v>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>voter98</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
       </c>
       <c r="G100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -720,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -743,22 +743,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -766,19 +766,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -812,19 +812,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -890,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -927,13 +927,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -959,13 +959,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -976,10 +976,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -996,19 +996,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1065,22 +1065,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1088,22 +1088,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1117,16 +1117,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1146,10 +1146,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1157,7 +1157,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1166,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1180,10 +1180,10 @@
         <v>26</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1203,22 +1203,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1252,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1272,19 +1272,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1295,22 +1295,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1321,19 +1321,19 @@
         <v>1</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1341,7 +1341,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -1396,13 +1396,13 @@
         <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -1433,19 +1433,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1456,10 +1456,10 @@
         <v>38</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1502,22 +1502,22 @@
         <v>40</v>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>42</v>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -1594,22 +1594,22 @@
         <v>44</v>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1617,22 +1617,22 @@
         <v>45</v>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1640,7 +1640,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -1675,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1686,7 +1686,7 @@
         <v>48</v>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1709,7 +1709,7 @@
         <v>49</v>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -1732,16 +1732,16 @@
         <v>50</v>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1755,10 +1755,10 @@
         <v>51</v>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>52</v>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -1790,10 +1790,10 @@
         <v>1</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1801,22 +1801,22 @@
         <v>53</v>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1833,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1847,7 +1847,7 @@
         <v>55</v>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1873,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -1902,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1916,22 +1916,22 @@
         <v>58</v>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1939,22 +1939,22 @@
         <v>59</v>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1962,22 +1962,22 @@
         <v>60</v>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1985,10 +1985,10 @@
         <v>61</v>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>62</v>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2031,19 +2031,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -2054,10 +2054,10 @@
         <v>64</v>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -2077,22 +2077,22 @@
         <v>65</v>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2100,10 +2100,10 @@
         <v>66</v>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2132,10 +2132,10 @@
         <v>1</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="C65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -2201,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2215,10 +2215,10 @@
         <v>71</v>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -2238,22 +2238,22 @@
         <v>72</v>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,22 +2261,22 @@
         <v>73</v>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="C70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>1</v>
       </c>
       <c r="C71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2336,16 +2336,16 @@
         <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2353,22 +2353,22 @@
         <v>77</v>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -2399,19 +2399,19 @@
         <v>79</v>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
@@ -2434,10 +2434,10 @@
         <v>1</v>
       </c>
       <c r="F76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
@@ -2537,16 +2537,16 @@
         <v>85</v>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
@@ -2563,19 +2563,19 @@
         <v>1</v>
       </c>
       <c r="C82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2586,16 +2586,16 @@
         <v>0</v>
       </c>
       <c r="C83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>88</v>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2629,7 +2629,7 @@
         <v>89</v>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -2638,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2658,16 +2658,16 @@
         <v>1</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2675,22 +2675,22 @@
         <v>91</v>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2701,19 +2701,19 @@
         <v>1</v>
       </c>
       <c r="C88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2721,7 +2721,7 @@
         <v>93</v>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -2744,22 +2744,22 @@
         <v>94</v>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2773,13 +2773,13 @@
         <v>1</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
@@ -2796,16 +2796,16 @@
         <v>1</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2813,22 +2813,22 @@
         <v>97</v>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2836,7 +2836,7 @@
         <v>98</v>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
@@ -2859,10 +2859,10 @@
         <v>99</v>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2905,10 +2905,10 @@
         <v>101</v>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>103</v>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
@@ -2974,22 +2974,22 @@
         <v>104</v>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
       </c>
       <c r="D100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7">

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -1,363 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
-  <si>
-    <t>project0</t>
-  </si>
-  <si>
-    <t>project1</t>
-  </si>
-  <si>
-    <t>project2</t>
-  </si>
-  <si>
-    <t>project3</t>
-  </si>
-  <si>
-    <t>project4</t>
-  </si>
-  <si>
-    <t>project5</t>
-  </si>
-  <si>
-    <t>voter0</t>
-  </si>
-  <si>
-    <t>voter1</t>
-  </si>
-  <si>
-    <t>voter2</t>
-  </si>
-  <si>
-    <t>voter3</t>
-  </si>
-  <si>
-    <t>voter4</t>
-  </si>
-  <si>
-    <t>voter5</t>
-  </si>
-  <si>
-    <t>voter6</t>
-  </si>
-  <si>
-    <t>voter7</t>
-  </si>
-  <si>
-    <t>voter8</t>
-  </si>
-  <si>
-    <t>voter9</t>
-  </si>
-  <si>
-    <t>voter10</t>
-  </si>
-  <si>
-    <t>voter11</t>
-  </si>
-  <si>
-    <t>voter12</t>
-  </si>
-  <si>
-    <t>voter13</t>
-  </si>
-  <si>
-    <t>voter14</t>
-  </si>
-  <si>
-    <t>voter15</t>
-  </si>
-  <si>
-    <t>voter16</t>
-  </si>
-  <si>
-    <t>voter17</t>
-  </si>
-  <si>
-    <t>voter18</t>
-  </si>
-  <si>
-    <t>voter19</t>
-  </si>
-  <si>
-    <t>voter20</t>
-  </si>
-  <si>
-    <t>voter21</t>
-  </si>
-  <si>
-    <t>voter22</t>
-  </si>
-  <si>
-    <t>voter23</t>
-  </si>
-  <si>
-    <t>voter24</t>
-  </si>
-  <si>
-    <t>voter25</t>
-  </si>
-  <si>
-    <t>voter26</t>
-  </si>
-  <si>
-    <t>voter27</t>
-  </si>
-  <si>
-    <t>voter28</t>
-  </si>
-  <si>
-    <t>voter29</t>
-  </si>
-  <si>
-    <t>voter30</t>
-  </si>
-  <si>
-    <t>voter31</t>
-  </si>
-  <si>
-    <t>voter32</t>
-  </si>
-  <si>
-    <t>voter33</t>
-  </si>
-  <si>
-    <t>voter34</t>
-  </si>
-  <si>
-    <t>voter35</t>
-  </si>
-  <si>
-    <t>voter36</t>
-  </si>
-  <si>
-    <t>voter37</t>
-  </si>
-  <si>
-    <t>voter38</t>
-  </si>
-  <si>
-    <t>voter39</t>
-  </si>
-  <si>
-    <t>voter40</t>
-  </si>
-  <si>
-    <t>voter41</t>
-  </si>
-  <si>
-    <t>voter42</t>
-  </si>
-  <si>
-    <t>voter43</t>
-  </si>
-  <si>
-    <t>voter44</t>
-  </si>
-  <si>
-    <t>voter45</t>
-  </si>
-  <si>
-    <t>voter46</t>
-  </si>
-  <si>
-    <t>voter47</t>
-  </si>
-  <si>
-    <t>voter48</t>
-  </si>
-  <si>
-    <t>voter49</t>
-  </si>
-  <si>
-    <t>voter50</t>
-  </si>
-  <si>
-    <t>voter51</t>
-  </si>
-  <si>
-    <t>voter52</t>
-  </si>
-  <si>
-    <t>voter53</t>
-  </si>
-  <si>
-    <t>voter54</t>
-  </si>
-  <si>
-    <t>voter55</t>
-  </si>
-  <si>
-    <t>voter56</t>
-  </si>
-  <si>
-    <t>voter57</t>
-  </si>
-  <si>
-    <t>voter58</t>
-  </si>
-  <si>
-    <t>voter59</t>
-  </si>
-  <si>
-    <t>voter60</t>
-  </si>
-  <si>
-    <t>voter61</t>
-  </si>
-  <si>
-    <t>voter62</t>
-  </si>
-  <si>
-    <t>voter63</t>
-  </si>
-  <si>
-    <t>voter64</t>
-  </si>
-  <si>
-    <t>voter65</t>
-  </si>
-  <si>
-    <t>voter66</t>
-  </si>
-  <si>
-    <t>voter67</t>
-  </si>
-  <si>
-    <t>voter68</t>
-  </si>
-  <si>
-    <t>voter69</t>
-  </si>
-  <si>
-    <t>voter70</t>
-  </si>
-  <si>
-    <t>voter71</t>
-  </si>
-  <si>
-    <t>voter72</t>
-  </si>
-  <si>
-    <t>voter73</t>
-  </si>
-  <si>
-    <t>voter74</t>
-  </si>
-  <si>
-    <t>voter75</t>
-  </si>
-  <si>
-    <t>voter76</t>
-  </si>
-  <si>
-    <t>voter77</t>
-  </si>
-  <si>
-    <t>voter78</t>
-  </si>
-  <si>
-    <t>voter79</t>
-  </si>
-  <si>
-    <t>voter80</t>
-  </si>
-  <si>
-    <t>voter81</t>
-  </si>
-  <si>
-    <t>voter82</t>
-  </si>
-  <si>
-    <t>voter83</t>
-  </si>
-  <si>
-    <t>voter84</t>
-  </si>
-  <si>
-    <t>voter85</t>
-  </si>
-  <si>
-    <t>voter86</t>
-  </si>
-  <si>
-    <t>voter87</t>
-  </si>
-  <si>
-    <t>voter88</t>
-  </si>
-  <si>
-    <t>voter89</t>
-  </si>
-  <si>
-    <t>voter90</t>
-  </si>
-  <si>
-    <t>voter91</t>
-  </si>
-  <si>
-    <t>voter92</t>
-  </si>
-  <si>
-    <t>voter93</t>
-  </si>
-  <si>
-    <t>voter94</t>
-  </si>
-  <si>
-    <t>voter95</t>
-  </si>
-  <si>
-    <t>voter96</t>
-  </si>
-  <si>
-    <t>voter97</t>
-  </si>
-  <si>
-    <t>voter98</t>
-  </si>
-  <si>
-    <t>voter99</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -372,35 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -688,36 +421,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>project0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>project1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>project2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>project3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>project4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>project5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>voter0</t>
+        </is>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -729,24 +482,26 @@
         <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>voter1</t>
+        </is>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -761,12 +516,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>voter2</t>
+        </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -781,41 +538,45 @@
         <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>voter3</t>
+        </is>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>voter4</t>
+        </is>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -827,35 +588,39 @@
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>voter5</t>
+        </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>voter6</t>
+        </is>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -876,9 +641,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>voter7</t>
+        </is>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -887,27 +654,29 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>voter8</t>
+        </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -916,24 +685,26 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>voter9</t>
+        </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -942,58 +713,64 @@
         <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>voter10</t>
+        </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>voter11</t>
+        </is>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>voter12</t>
+        </is>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -1008,18 +785,20 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>voter13</t>
+        </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1028,27 +807,29 @@
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>voter14</t>
+        </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1057,12 +838,14 @@
         <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>voter15</t>
+        </is>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -1077,18 +860,20 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>voter16</t>
+        </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1100,130 +885,142 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>voter17</t>
+        </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>voter18</t>
+        </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>voter19</t>
+        </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>voter20</t>
+        </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>voter21</t>
+        </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>voter22</t>
+        </is>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -1235,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1244,9 +1041,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>voter23</t>
+        </is>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -1258,30 +1057,32 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>voter24</t>
+        </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -1290,61 +1091,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>voter25</t>
+        </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>voter26</t>
+        </is>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>voter27</t>
+        </is>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1359,41 +1166,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>voter28</t>
+        </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>voter29</t>
+        </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -1405,32 +1216,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>voter30</t>
+        </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>voter31</t>
+        </is>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -1451,21 +1266,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>voter32</t>
+        </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1474,12 +1291,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>voter33</t>
+        </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -1488,18 +1307,20 @@
         <v>0</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>40</v>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>voter34</t>
+        </is>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -1511,50 +1332,54 @@
         <v>1</v>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>41</v>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>voter35</t>
+        </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>voter36</t>
+        </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1563,12 +1388,14 @@
         <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>voter37</t>
+        </is>
       </c>
       <c r="B39" t="b">
         <v>0</v>
@@ -1577,21 +1404,23 @@
         <v>0</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>44</v>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>voter38</t>
+        </is>
       </c>
       <c r="B40" t="b">
         <v>0</v>
@@ -1603,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1612,9 +1441,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>voter39</t>
+        </is>
       </c>
       <c r="B41" t="b">
         <v>0</v>
@@ -1629,15 +1460,17 @@
         <v>0</v>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>46</v>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>voter40</t>
+        </is>
       </c>
       <c r="B42" t="b">
         <v>1</v>
@@ -1646,21 +1479,23 @@
         <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>voter41</t>
+        </is>
       </c>
       <c r="B43" t="b">
         <v>1</v>
@@ -1669,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1678,12 +1513,14 @@
         <v>0</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>voter42</t>
+        </is>
       </c>
       <c r="B44" t="b">
         <v>0</v>
@@ -1704,9 +1541,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
-        <v>49</v>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>voter43</t>
+        </is>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -1727,15 +1566,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>50</v>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>voter44</t>
+        </is>
       </c>
       <c r="B46" t="b">
         <v>1</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -1744,15 +1585,17 @@
         <v>1</v>
       </c>
       <c r="F46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>voter45</t>
+        </is>
       </c>
       <c r="B47" t="b">
         <v>1</v>
@@ -1767,15 +1610,17 @@
         <v>1</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>voter46</t>
+        </is>
       </c>
       <c r="B48" t="b">
         <v>1</v>
@@ -1793,12 +1638,14 @@
         <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>voter47</t>
+        </is>
       </c>
       <c r="B49" t="b">
         <v>0</v>
@@ -1810,18 +1657,20 @@
         <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>54</v>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>voter48</t>
+        </is>
       </c>
       <c r="B50" t="b">
         <v>0</v>
@@ -1842,58 +1691,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>voter49</t>
+        </is>
       </c>
       <c r="B51" t="b">
         <v>1</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>56</v>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>voter50</t>
+        </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>57</v>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>voter51</t>
+        </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -1911,9 +1766,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>voter52</t>
+        </is>
       </c>
       <c r="B54" t="b">
         <v>0</v>
@@ -1928,47 +1785,51 @@
         <v>0</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
-        <v>59</v>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>voter53</t>
+        </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>voter54</t>
+        </is>
       </c>
       <c r="B56" t="b">
         <v>1</v>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -1980,15 +1841,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>61</v>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>voter55</t>
+        </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -2003,61 +1866,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>voter56</t>
+        </is>
       </c>
       <c r="B58" t="b">
         <v>1</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>voter57</t>
+        </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>64</v>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>voter58</t>
+        </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -2066,50 +1935,54 @@
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>voter59</t>
+        </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>voter60</t>
+        </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -2118,9 +1991,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1" t="s">
-        <v>67</v>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>voter61</t>
+        </is>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -2132,18 +2007,20 @@
         <v>1</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>voter62</t>
+        </is>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -2155,18 +2032,20 @@
         <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>voter63</t>
+        </is>
       </c>
       <c r="B65" t="b">
         <v>0</v>
@@ -2184,44 +2063,48 @@
         <v>0</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>voter64</t>
+        </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>voter65</t>
+        </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
@@ -2233,32 +2116,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
-        <v>72</v>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>voter66</t>
+        </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>voter67</t>
+        </is>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -2267,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -2279,9 +2166,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
-        <v>74</v>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>voter68</t>
+        </is>
       </c>
       <c r="B70" t="b">
         <v>0</v>
@@ -2302,32 +2191,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>75</v>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>voter69</t>
+        </is>
       </c>
       <c r="B71" t="b">
         <v>1</v>
       </c>
       <c r="C71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>voter70</t>
+        </is>
       </c>
       <c r="B72" t="b">
         <v>0</v>
@@ -2336,27 +2229,29 @@
         <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
-        <v>77</v>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>voter71</t>
+        </is>
       </c>
       <c r="B73" t="b">
         <v>1</v>
       </c>
       <c r="C73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -2371,32 +2266,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
-        <v>78</v>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>voter72</t>
+        </is>
       </c>
       <c r="B74" t="b">
         <v>1</v>
       </c>
       <c r="C74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>voter73</t>
+        </is>
       </c>
       <c r="B75" t="b">
         <v>1</v>
@@ -2417,18 +2316,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
-        <v>80</v>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>voter74</t>
+        </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
@@ -2440,32 +2341,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="1" t="s">
-        <v>81</v>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>voter75</t>
+        </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>voter76</t>
+        </is>
       </c>
       <c r="B78" t="b">
         <v>1</v>
@@ -2474,44 +2379,48 @@
         <v>0</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="1" t="s">
-        <v>83</v>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>voter77</t>
+        </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>voter78</t>
+        </is>
       </c>
       <c r="B80" t="b">
         <v>1</v>
@@ -2520,30 +2429,32 @@
         <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>voter79</t>
+        </is>
       </c>
       <c r="B81" t="b">
         <v>1</v>
       </c>
       <c r="C81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -2555,32 +2466,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1" t="s">
-        <v>86</v>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>voter80</t>
+        </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1" t="s">
-        <v>87</v>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>voter81</t>
+        </is>
       </c>
       <c r="B83" t="b">
         <v>0</v>
@@ -2589,27 +2504,29 @@
         <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>voter82</t>
+        </is>
       </c>
       <c r="B84" t="b">
         <v>1</v>
       </c>
       <c r="C84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -2624,21 +2541,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="1" t="s">
-        <v>89</v>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>voter83</t>
+        </is>
       </c>
       <c r="B85" t="b">
         <v>0</v>
       </c>
       <c r="C85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2647,9 +2566,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1" t="s">
-        <v>90</v>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>voter84</t>
+        </is>
       </c>
       <c r="B86" t="b">
         <v>1</v>
@@ -2658,27 +2579,29 @@
         <v>1</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>voter85</t>
+        </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -2687,15 +2610,17 @@
         <v>1</v>
       </c>
       <c r="F87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="1" t="s">
-        <v>92</v>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>voter86</t>
+        </is>
       </c>
       <c r="B88" t="b">
         <v>1</v>
@@ -2704,24 +2629,26 @@
         <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="1" t="s">
-        <v>93</v>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>voter87</t>
+        </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -2733,21 +2660,23 @@
         <v>1</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1" t="s">
-        <v>94</v>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>voter88</t>
+        </is>
       </c>
       <c r="B90" t="b">
         <v>0</v>
       </c>
       <c r="C90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -2759,58 +2688,64 @@
         <v>0</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>voter89</t>
+        </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="1" t="s">
-        <v>96</v>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>voter90</t>
+        </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>voter91</t>
+        </is>
       </c>
       <c r="B93" t="b">
         <v>1</v>
@@ -2819,24 +2754,26 @@
         <v>0</v>
       </c>
       <c r="D93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="1" t="s">
-        <v>98</v>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>voter92</t>
+        </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
@@ -2854,32 +2791,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="1" t="s">
-        <v>99</v>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>voter93</t>
+        </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="1" t="s">
-        <v>100</v>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>voter94</t>
+        </is>
       </c>
       <c r="B96" t="b">
         <v>1</v>
@@ -2888,99 +2829,107 @@
         <v>1</v>
       </c>
       <c r="D96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="1" t="s">
-        <v>101</v>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>voter95</t>
+        </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>voter96</t>
+        </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>voter97</t>
+        </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="1" t="s">
-        <v>104</v>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>voter98</t>
+        </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
       </c>
       <c r="D100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
@@ -2992,15 +2941,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="1" t="s">
-        <v>105</v>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>voter99</t>
+        </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -3016,6 +2967,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -720,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -769,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -858,22 +858,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -881,19 +881,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -927,22 +927,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -950,10 +950,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -996,22 +996,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1019,13 +1019,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1042,22 +1042,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1065,22 +1065,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -1111,10 +1111,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1157,7 +1157,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1166,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1212,10 +1212,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1249,13 +1249,13 @@
         <v>29</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1272,22 +1272,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1295,7 +1295,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>32</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1393,13 +1393,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -1436,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1456,10 +1456,10 @@
         <v>38</v>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1468,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1479,22 +1479,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         <v>41</v>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1548,22 +1548,22 @@
         <v>42</v>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1571,10 +1571,10 @@
         <v>43</v>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1617,13 +1617,13 @@
         <v>45</v>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1643,16 +1643,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -1666,19 +1666,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1689,10 +1689,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1712,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1755,22 +1755,22 @@
         <v>51</v>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1784,16 +1784,16 @@
         <v>1</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1801,7 +1801,7 @@
         <v>53</v>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1847,22 +1847,22 @@
         <v>55</v>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1870,7 +1870,7 @@
         <v>56</v>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -1879,13 +1879,13 @@
         <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -1916,10 +1916,10 @@
         <v>58</v>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -1939,10 +1939,10 @@
         <v>59</v>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -1962,7 +1962,7 @@
         <v>60</v>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -1971,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2014,13 +2014,13 @@
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
         <v>63</v>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -2040,10 +2040,10 @@
         <v>1</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>64</v>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -2080,19 +2080,19 @@
         <v>0</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2100,19 +2100,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -2123,10 +2123,10 @@
         <v>67</v>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -2146,19 +2146,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -2192,10 +2192,10 @@
         <v>70</v>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -2218,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -2238,10 +2238,10 @@
         <v>72</v>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2264,19 +2264,19 @@
         <v>0</v>
       </c>
       <c r="C69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2284,7 +2284,7 @@
         <v>74</v>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
@@ -2307,22 +2307,22 @@
         <v>75</v>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2333,16 +2333,16 @@
         <v>0</v>
       </c>
       <c r="C72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>78</v>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -2388,10 +2388,10 @@
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2422,22 +2422,22 @@
         <v>80</v>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         <v>82</v>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2514,10 +2514,10 @@
         <v>84</v>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
@@ -2586,19 +2586,19 @@
         <v>0</v>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2606,22 +2606,22 @@
         <v>88</v>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2632,19 +2632,19 @@
         <v>1</v>
       </c>
       <c r="C85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2661,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="b">
         <v>1</v>
@@ -2678,19 +2678,19 @@
         <v>0</v>
       </c>
       <c r="C87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2698,22 +2698,22 @@
         <v>92</v>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -2744,22 +2744,22 @@
         <v>94</v>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2773,16 +2773,16 @@
         <v>1</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2790,16 +2790,16 @@
         <v>96</v>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>97</v>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -2822,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -2954,19 +2954,19 @@
         <v>0</v>
       </c>
       <c r="C99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>1</v>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -1,363 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
-  <si>
-    <t>project0</t>
-  </si>
-  <si>
-    <t>project1</t>
-  </si>
-  <si>
-    <t>project2</t>
-  </si>
-  <si>
-    <t>project3</t>
-  </si>
-  <si>
-    <t>project4</t>
-  </si>
-  <si>
-    <t>project5</t>
-  </si>
-  <si>
-    <t>voter0</t>
-  </si>
-  <si>
-    <t>voter1</t>
-  </si>
-  <si>
-    <t>voter2</t>
-  </si>
-  <si>
-    <t>voter3</t>
-  </si>
-  <si>
-    <t>voter4</t>
-  </si>
-  <si>
-    <t>voter5</t>
-  </si>
-  <si>
-    <t>voter6</t>
-  </si>
-  <si>
-    <t>voter7</t>
-  </si>
-  <si>
-    <t>voter8</t>
-  </si>
-  <si>
-    <t>voter9</t>
-  </si>
-  <si>
-    <t>voter10</t>
-  </si>
-  <si>
-    <t>voter11</t>
-  </si>
-  <si>
-    <t>voter12</t>
-  </si>
-  <si>
-    <t>voter13</t>
-  </si>
-  <si>
-    <t>voter14</t>
-  </si>
-  <si>
-    <t>voter15</t>
-  </si>
-  <si>
-    <t>voter16</t>
-  </si>
-  <si>
-    <t>voter17</t>
-  </si>
-  <si>
-    <t>voter18</t>
-  </si>
-  <si>
-    <t>voter19</t>
-  </si>
-  <si>
-    <t>voter20</t>
-  </si>
-  <si>
-    <t>voter21</t>
-  </si>
-  <si>
-    <t>voter22</t>
-  </si>
-  <si>
-    <t>voter23</t>
-  </si>
-  <si>
-    <t>voter24</t>
-  </si>
-  <si>
-    <t>voter25</t>
-  </si>
-  <si>
-    <t>voter26</t>
-  </si>
-  <si>
-    <t>voter27</t>
-  </si>
-  <si>
-    <t>voter28</t>
-  </si>
-  <si>
-    <t>voter29</t>
-  </si>
-  <si>
-    <t>voter30</t>
-  </si>
-  <si>
-    <t>voter31</t>
-  </si>
-  <si>
-    <t>voter32</t>
-  </si>
-  <si>
-    <t>voter33</t>
-  </si>
-  <si>
-    <t>voter34</t>
-  </si>
-  <si>
-    <t>voter35</t>
-  </si>
-  <si>
-    <t>voter36</t>
-  </si>
-  <si>
-    <t>voter37</t>
-  </si>
-  <si>
-    <t>voter38</t>
-  </si>
-  <si>
-    <t>voter39</t>
-  </si>
-  <si>
-    <t>voter40</t>
-  </si>
-  <si>
-    <t>voter41</t>
-  </si>
-  <si>
-    <t>voter42</t>
-  </si>
-  <si>
-    <t>voter43</t>
-  </si>
-  <si>
-    <t>voter44</t>
-  </si>
-  <si>
-    <t>voter45</t>
-  </si>
-  <si>
-    <t>voter46</t>
-  </si>
-  <si>
-    <t>voter47</t>
-  </si>
-  <si>
-    <t>voter48</t>
-  </si>
-  <si>
-    <t>voter49</t>
-  </si>
-  <si>
-    <t>voter50</t>
-  </si>
-  <si>
-    <t>voter51</t>
-  </si>
-  <si>
-    <t>voter52</t>
-  </si>
-  <si>
-    <t>voter53</t>
-  </si>
-  <si>
-    <t>voter54</t>
-  </si>
-  <si>
-    <t>voter55</t>
-  </si>
-  <si>
-    <t>voter56</t>
-  </si>
-  <si>
-    <t>voter57</t>
-  </si>
-  <si>
-    <t>voter58</t>
-  </si>
-  <si>
-    <t>voter59</t>
-  </si>
-  <si>
-    <t>voter60</t>
-  </si>
-  <si>
-    <t>voter61</t>
-  </si>
-  <si>
-    <t>voter62</t>
-  </si>
-  <si>
-    <t>voter63</t>
-  </si>
-  <si>
-    <t>voter64</t>
-  </si>
-  <si>
-    <t>voter65</t>
-  </si>
-  <si>
-    <t>voter66</t>
-  </si>
-  <si>
-    <t>voter67</t>
-  </si>
-  <si>
-    <t>voter68</t>
-  </si>
-  <si>
-    <t>voter69</t>
-  </si>
-  <si>
-    <t>voter70</t>
-  </si>
-  <si>
-    <t>voter71</t>
-  </si>
-  <si>
-    <t>voter72</t>
-  </si>
-  <si>
-    <t>voter73</t>
-  </si>
-  <si>
-    <t>voter74</t>
-  </si>
-  <si>
-    <t>voter75</t>
-  </si>
-  <si>
-    <t>voter76</t>
-  </si>
-  <si>
-    <t>voter77</t>
-  </si>
-  <si>
-    <t>voter78</t>
-  </si>
-  <si>
-    <t>voter79</t>
-  </si>
-  <si>
-    <t>voter80</t>
-  </si>
-  <si>
-    <t>voter81</t>
-  </si>
-  <si>
-    <t>voter82</t>
-  </si>
-  <si>
-    <t>voter83</t>
-  </si>
-  <si>
-    <t>voter84</t>
-  </si>
-  <si>
-    <t>voter85</t>
-  </si>
-  <si>
-    <t>voter86</t>
-  </si>
-  <si>
-    <t>voter87</t>
-  </si>
-  <si>
-    <t>voter88</t>
-  </si>
-  <si>
-    <t>voter89</t>
-  </si>
-  <si>
-    <t>voter90</t>
-  </si>
-  <si>
-    <t>voter91</t>
-  </si>
-  <si>
-    <t>voter92</t>
-  </si>
-  <si>
-    <t>voter93</t>
-  </si>
-  <si>
-    <t>voter94</t>
-  </si>
-  <si>
-    <t>voter95</t>
-  </si>
-  <si>
-    <t>voter96</t>
-  </si>
-  <si>
-    <t>voter97</t>
-  </si>
-  <si>
-    <t>voter98</t>
-  </si>
-  <si>
-    <t>voter99</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -372,35 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -688,71 +421,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>project0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>project1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>project2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>project3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>project4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>project5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>voter0</t>
+        </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>voter1</t>
+        </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -761,9 +516,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>voter2</t>
+        </is>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -772,27 +529,29 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>voter3</t>
+        </is>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -801,18 +560,20 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>voter4</t>
+        </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -821,21 +582,23 @@
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>voter5</t>
+        </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -844,41 +607,45 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>voter6</t>
+        </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>voter7</t>
+        </is>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -896,12 +663,14 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>voter8</t>
+        </is>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -910,21 +679,23 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>voter9</t>
+        </is>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -945,55 +716,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>voter10</t>
+        </is>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>voter11</t>
+        </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>voter12</t>
+        </is>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -1008,38 +785,42 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>voter13</t>
+        </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>voter14</t>
+        </is>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -1048,10 +829,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1060,12 +841,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>voter15</t>
+        </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1074,44 +857,48 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>voter16</t>
+        </is>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>voter17</t>
+        </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1123,64 +910,70 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>voter18</t>
+        </is>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>voter19</t>
+        </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>voter20</t>
+        </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1189,18 +982,20 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>voter21</t>
+        </is>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -1209,24 +1004,26 @@
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>voter22</t>
+        </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1235,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1244,32 +1041,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>voter23</t>
+        </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>voter24</t>
+        </is>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -1290,18 +1091,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>voter25</t>
+        </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1313,15 +1116,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>voter26</t>
+        </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -1336,18 +1141,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>voter27</t>
+        </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1359,90 +1166,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>voter28</t>
+        </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>voter29</t>
+        </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>voter30</t>
+        </is>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>voter31</t>
+        </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1451,32 +1266,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>voter32</t>
+        </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>voter33</t>
+        </is>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -1491,38 +1310,42 @@
         <v>1</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>40</v>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>voter34</t>
+        </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>41</v>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>voter35</t>
+        </is>
       </c>
       <c r="B37" t="b">
         <v>1</v>
@@ -1531,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1543,35 +1366,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>voter36</t>
+        </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>voter37</t>
+        </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -1583,38 +1410,42 @@
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>44</v>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>voter38</t>
+        </is>
       </c>
       <c r="B40" t="b">
         <v>1</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>voter39</t>
+        </is>
       </c>
       <c r="B41" t="b">
         <v>0</v>
@@ -1635,15 +1466,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>46</v>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>voter40</t>
+        </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1652,38 +1485,42 @@
         <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>voter41</t>
+        </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>voter42</t>
+        </is>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -1692,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1704,38 +1541,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
-        <v>49</v>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>voter43</t>
+        </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>voter44</t>
+        </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -1744,64 +1585,70 @@
         <v>0</v>
       </c>
       <c r="F46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>51</v>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>voter45</t>
+        </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>voter46</t>
+        </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>voter47</t>
+        </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -1810,18 +1657,20 @@
         <v>1</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>voter48</t>
+        </is>
       </c>
       <c r="B50" t="b">
         <v>0</v>
@@ -1830,93 +1679,101 @@
         <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>voter49</t>
+        </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>voter50</t>
+        </is>
       </c>
       <c r="B52" t="b">
         <v>0</v>
       </c>
       <c r="C52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>57</v>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>voter51</t>
+        </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>voter52</t>
+        </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -1928,44 +1785,48 @@
         <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
-        <v>59</v>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>voter53</t>
+        </is>
       </c>
       <c r="B55" t="b">
         <v>0</v>
       </c>
       <c r="C55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>voter54</t>
+        </is>
       </c>
       <c r="B56" t="b">
         <v>1</v>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -1974,24 +1835,26 @@
         <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>61</v>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>voter55</t>
+        </is>
       </c>
       <c r="B57" t="b">
         <v>0</v>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -2000,24 +1863,26 @@
         <v>0</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>voter56</t>
+        </is>
       </c>
       <c r="B58" t="b">
         <v>0</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -2026,18 +1891,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>63</v>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>voter57</t>
+        </is>
       </c>
       <c r="B59" t="b">
         <v>0</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -2049,61 +1916,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>64</v>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>voter58</t>
+        </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>65</v>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>voter59</t>
+        </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>voter60</t>
+        </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -2112,27 +1985,29 @@
         <v>0</v>
       </c>
       <c r="F62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>voter61</t>
+        </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -2141,41 +2016,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
-        <v>68</v>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>voter62</t>
+        </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1" t="s">
-        <v>69</v>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>voter63</t>
+        </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -2187,9 +2066,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1" t="s">
-        <v>70</v>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>voter64</t>
+        </is>
       </c>
       <c r="B66" t="b">
         <v>1</v>
@@ -2204,18 +2085,20 @@
         <v>0</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1" t="s">
-        <v>71</v>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>voter65</t>
+        </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -2224,21 +2107,23 @@
         <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
-        <v>72</v>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>voter66</t>
+        </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -2247,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -2256,9 +2141,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
-        <v>73</v>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>voter67</t>
+        </is>
       </c>
       <c r="B69" t="b">
         <v>0</v>
@@ -2267,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
@@ -2279,9 +2166,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
-        <v>74</v>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>voter68</t>
+        </is>
       </c>
       <c r="B70" t="b">
         <v>1</v>
@@ -2296,18 +2185,20 @@
         <v>0</v>
       </c>
       <c r="F70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>voter69</t>
+        </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -2316,41 +2207,45 @@
         <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>voter70</t>
+        </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>voter71</t>
+        </is>
       </c>
       <c r="B73" t="b">
         <v>0</v>
@@ -2359,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
@@ -2371,32 +2266,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
-        <v>78</v>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>voter72</t>
+        </is>
       </c>
       <c r="B74" t="b">
         <v>0</v>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>voter73</t>
+        </is>
       </c>
       <c r="B75" t="b">
         <v>0</v>
@@ -2417,18 +2316,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
-        <v>80</v>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>voter74</t>
+        </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
@@ -2437,18 +2338,20 @@
         <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>voter75</t>
+        </is>
       </c>
       <c r="B77" t="b">
         <v>0</v>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -2457,21 +2360,23 @@
         <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="1" t="s">
-        <v>82</v>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>voter76</t>
+        </is>
       </c>
       <c r="B78" t="b">
         <v>1</v>
       </c>
       <c r="C78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -2480,15 +2385,17 @@
         <v>1</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="1" t="s">
-        <v>83</v>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>voter77</t>
+        </is>
       </c>
       <c r="B79" t="b">
         <v>1</v>
@@ -2497,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
@@ -2509,21 +2416,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="1" t="s">
-        <v>84</v>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>voter78</t>
+        </is>
       </c>
       <c r="B80" t="b">
         <v>0</v>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2532,18 +2441,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="1" t="s">
-        <v>85</v>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>voter79</t>
+        </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -2555,18 +2466,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1" t="s">
-        <v>86</v>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>voter80</t>
+        </is>
       </c>
       <c r="B82" t="b">
         <v>1</v>
       </c>
       <c r="C82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -2578,58 +2491,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1" t="s">
-        <v>87</v>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>voter81</t>
+        </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1" t="s">
-        <v>88</v>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>voter82</t>
+        </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>voter83</t>
+        </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -2641,61 +2560,67 @@
         <v>0</v>
       </c>
       <c r="F85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1" t="s">
-        <v>90</v>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>voter84</t>
+        </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>voter85</t>
+        </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="1" t="s">
-        <v>92</v>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>voter86</t>
+        </is>
       </c>
       <c r="B88" t="b">
         <v>0</v>
@@ -2716,15 +2641,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="1" t="s">
-        <v>93</v>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>voter87</t>
+        </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -2733,41 +2660,45 @@
         <v>0</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1" t="s">
-        <v>94</v>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>voter88</t>
+        </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>voter89</t>
+        </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -2776,41 +2707,45 @@
         <v>1</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="1" t="s">
-        <v>96</v>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>voter90</t>
+        </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="1" t="s">
-        <v>97</v>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>voter91</t>
+        </is>
       </c>
       <c r="B93" t="b">
         <v>1</v>
@@ -2819,21 +2754,23 @@
         <v>1</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="1" t="s">
-        <v>98</v>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>voter92</t>
+        </is>
       </c>
       <c r="B94" t="b">
         <v>0</v>
@@ -2854,15 +2791,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="1" t="s">
-        <v>99</v>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>voter93</t>
+        </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -2871,15 +2810,17 @@
         <v>1</v>
       </c>
       <c r="F95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>voter94</t>
+        </is>
       </c>
       <c r="B96" t="b">
         <v>1</v>
@@ -2888,10 +2829,10 @@
         <v>1</v>
       </c>
       <c r="D96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
@@ -2900,9 +2841,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="1" t="s">
-        <v>101</v>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>voter95</t>
+        </is>
       </c>
       <c r="B97" t="b">
         <v>0</v>
@@ -2914,18 +2857,20 @@
         <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>voter96</t>
+        </is>
       </c>
       <c r="B98" t="b">
         <v>0</v>
@@ -2946,9 +2891,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="1" t="s">
-        <v>103</v>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>voter97</t>
+        </is>
       </c>
       <c r="B99" t="b">
         <v>0</v>
@@ -2966,56 +2913,60 @@
         <v>0</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>voter98</t>
+        </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>voter99</t>
+        </is>
       </c>
       <c r="B101" t="b">
         <v>1</v>
       </c>
       <c r="C101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -579,13 +579,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -698,22 +698,22 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -732,13 +732,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -798,16 +798,16 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -876,19 +876,19 @@
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -926,16 +926,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1004,13 +1004,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1126,13 +1126,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -1151,19 +1151,19 @@
         <v>1</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1173,19 +1173,19 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -1198,22 +1198,22 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1273,19 +1273,19 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -1301,19 +1301,19 @@
         <v>1</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1373,13 +1373,13 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1398,22 +1398,22 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1426,16 +1426,16 @@
         <v>1</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1476,19 +1476,19 @@
         <v>1</v>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1501,19 +1501,19 @@
         <v>1</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1598,22 +1598,22 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -1632,10 +1632,10 @@
         <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -1698,10 +1698,10 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -1723,22 +1723,22 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -1826,19 +1826,19 @@
         <v>1</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1848,16 +1848,16 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -1879,16 +1879,16 @@
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1898,19 +1898,19 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -1926,19 +1926,19 @@
         <v>1</v>
       </c>
       <c r="C60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1948,16 +1948,16 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         <v>1</v>
       </c>
       <c r="C63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2076,19 +2076,19 @@
         <v>1</v>
       </c>
       <c r="C66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -2107,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2123,19 +2123,19 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -2151,19 +2151,19 @@
         <v>0</v>
       </c>
       <c r="C69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2176,19 +2176,19 @@
         <v>1</v>
       </c>
       <c r="C70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2198,10 +2198,10 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2229,16 +2229,16 @@
         <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2257,13 +2257,13 @@
         <v>1</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="C74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
@@ -2298,19 +2298,19 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2348,19 +2348,19 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -2382,13 +2382,13 @@
         <v>1</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2398,22 +2398,22 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2423,19 +2423,19 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -2448,22 +2448,22 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2498,10 +2498,10 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2548,22 +2548,22 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2601,10 +2601,10 @@
         <v>1</v>
       </c>
       <c r="C87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
@@ -2648,22 +2648,22 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="D90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2698,22 +2698,22 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
@@ -2757,13 +2757,13 @@
         <v>1</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2798,22 +2798,22 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2829,16 +2829,16 @@
         <v>1</v>
       </c>
       <c r="D96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2848,22 +2848,22 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2898,22 +2898,22 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2923,22 +2923,22 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
       </c>
       <c r="D100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2951,16 +2951,16 @@
         <v>1</v>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -729,13 +729,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -766,13 +766,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -789,22 +789,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -815,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -835,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -881,13 +881,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -904,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -916,10 +916,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -927,13 +927,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -973,16 +973,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -999,16 +999,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1019,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1028,10 +1028,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1065,13 +1065,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1097,13 +1097,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1111,10 +1111,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1134,10 +1134,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1157,16 +1157,16 @@
         <v>25</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1180,22 +1180,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1229,19 +1229,19 @@
         <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1249,22 +1249,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1272,22 +1272,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1295,10 +1295,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1321,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1341,7 +1341,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1350,13 +1350,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1364,22 +1364,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1387,19 +1387,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -1433,19 +1433,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -1482,19 +1482,19 @@
         <v>1</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1508,13 +1508,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         <v>41</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1548,10 +1548,10 @@
         <v>42</v>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -1560,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1574,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1603,13 +1603,13 @@
         <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1767,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -1778,22 +1778,22 @@
         <v>52</v>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1801,22 +1801,22 @@
         <v>53</v>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1847,22 +1847,22 @@
         <v>55</v>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -1893,19 +1893,19 @@
         <v>57</v>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -1919,19 +1919,19 @@
         <v>0</v>
       </c>
       <c r="C54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1939,7 +1939,7 @@
         <v>59</v>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -1962,7 +1962,7 @@
         <v>60</v>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -1974,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1985,7 +1985,7 @@
         <v>61</v>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -1994,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -2008,19 +2008,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -2031,22 +2031,22 @@
         <v>63</v>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2057,19 +2057,19 @@
         <v>0</v>
       </c>
       <c r="C60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2077,7 +2077,7 @@
         <v>65</v>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2123,22 +2123,22 @@
         <v>67</v>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2146,19 +2146,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="C65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -2192,10 +2192,10 @@
         <v>70</v>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>71</v>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -2241,19 +2241,19 @@
         <v>1</v>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2264,16 +2264,16 @@
         <v>0</v>
       </c>
       <c r="C69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -2290,16 +2290,16 @@
         <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2307,16 +2307,16 @@
         <v>75</v>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>76</v>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
@@ -2379,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2422,13 +2422,13 @@
         <v>80</v>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2468,19 +2468,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
@@ -2497,16 +2497,16 @@
         <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2520,13 +2520,13 @@
         <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -2560,19 +2560,19 @@
         <v>86</v>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -2583,10 +2583,10 @@
         <v>87</v>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2606,22 +2606,22 @@
         <v>88</v>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2632,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -2652,19 +2652,19 @@
         <v>90</v>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -2678,19 +2678,19 @@
         <v>0</v>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2698,7 +2698,7 @@
         <v>92</v>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="C89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
@@ -2744,22 +2744,22 @@
         <v>94</v>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2813,19 +2813,19 @@
         <v>97</v>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -2859,22 +2859,22 @@
         <v>99</v>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2882,19 +2882,19 @@
         <v>100</v>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
         <v>101</v>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>103</v>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3000,16 +3000,16 @@
         <v>1</v>
       </c>
       <c r="C101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -720,22 +720,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -743,19 +743,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -844,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -881,13 +881,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -904,13 +904,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -930,16 +930,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -982,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -996,10 +996,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1028,10 +1028,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1065,13 +1065,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1097,13 +1097,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1192,10 +1192,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1226,13 +1226,13 @@
         <v>28</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -1249,22 +1249,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1272,22 +1272,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1301,16 +1301,16 @@
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1321,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1387,7 +1387,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1468,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1479,22 +1479,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1551,19 +1551,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1597,19 +1597,19 @@
         <v>1</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1617,10 +1617,10 @@
         <v>45</v>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1640,19 +1640,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -1686,19 +1686,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -1712,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1732,22 +1732,22 @@
         <v>50</v>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1755,10 +1755,10 @@
         <v>51</v>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -1778,22 +1778,22 @@
         <v>52</v>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1801,13 +1801,13 @@
         <v>53</v>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>54</v>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1873,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1893,7 +1893,7 @@
         <v>57</v>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>59</v>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1985,22 +1985,22 @@
         <v>61</v>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2031,10 +2031,10 @@
         <v>63</v>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>65</v>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>66</v>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -2109,13 +2109,13 @@
         <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2146,16 +2146,16 @@
         <v>68</v>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2192,22 +2192,22 @@
         <v>70</v>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2215,10 +2215,10 @@
         <v>71</v>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -2250,10 +2250,10 @@
         <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,19 +2261,19 @@
         <v>73</v>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -2284,16 +2284,16 @@
         <v>74</v>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -2310,16 +2310,16 @@
         <v>1</v>
       </c>
       <c r="C71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -2339,13 +2339,13 @@
         <v>1</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2353,22 +2353,22 @@
         <v>77</v>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2376,7 +2376,7 @@
         <v>78</v>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -2385,13 +2385,13 @@
         <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>80</v>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -2431,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2445,22 +2445,22 @@
         <v>81</v>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2474,13 +2474,13 @@
         <v>1</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="F79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2517,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2537,7 +2537,7 @@
         <v>85</v>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
@@ -2560,19 +2560,19 @@
         <v>86</v>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -2595,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2638,13 +2638,13 @@
         <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -2664,10 +2664,10 @@
         <v>1</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2698,19 +2698,19 @@
         <v>92</v>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
@@ -2744,22 +2744,22 @@
         <v>94</v>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2767,22 +2767,22 @@
         <v>95</v>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2793,19 +2793,19 @@
         <v>0</v>
       </c>
       <c r="C92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2813,19 +2813,19 @@
         <v>97</v>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -2836,22 +2836,22 @@
         <v>98</v>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2865,16 +2865,16 @@
         <v>1</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="C96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -2914,13 +2914,13 @@
         <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2937,13 +2937,13 @@
         <v>0</v>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2954,19 +2954,19 @@
         <v>1</v>
       </c>
       <c r="C99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2977,16 +2977,16 @@
         <v>0</v>
       </c>
       <c r="C100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -2997,22 +2997,22 @@
         <v>105</v>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -1,363 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
-  <si>
-    <t>project0</t>
-  </si>
-  <si>
-    <t>project1</t>
-  </si>
-  <si>
-    <t>project2</t>
-  </si>
-  <si>
-    <t>project3</t>
-  </si>
-  <si>
-    <t>project4</t>
-  </si>
-  <si>
-    <t>project5</t>
-  </si>
-  <si>
-    <t>voter0</t>
-  </si>
-  <si>
-    <t>voter1</t>
-  </si>
-  <si>
-    <t>voter2</t>
-  </si>
-  <si>
-    <t>voter3</t>
-  </si>
-  <si>
-    <t>voter4</t>
-  </si>
-  <si>
-    <t>voter5</t>
-  </si>
-  <si>
-    <t>voter6</t>
-  </si>
-  <si>
-    <t>voter7</t>
-  </si>
-  <si>
-    <t>voter8</t>
-  </si>
-  <si>
-    <t>voter9</t>
-  </si>
-  <si>
-    <t>voter10</t>
-  </si>
-  <si>
-    <t>voter11</t>
-  </si>
-  <si>
-    <t>voter12</t>
-  </si>
-  <si>
-    <t>voter13</t>
-  </si>
-  <si>
-    <t>voter14</t>
-  </si>
-  <si>
-    <t>voter15</t>
-  </si>
-  <si>
-    <t>voter16</t>
-  </si>
-  <si>
-    <t>voter17</t>
-  </si>
-  <si>
-    <t>voter18</t>
-  </si>
-  <si>
-    <t>voter19</t>
-  </si>
-  <si>
-    <t>voter20</t>
-  </si>
-  <si>
-    <t>voter21</t>
-  </si>
-  <si>
-    <t>voter22</t>
-  </si>
-  <si>
-    <t>voter23</t>
-  </si>
-  <si>
-    <t>voter24</t>
-  </si>
-  <si>
-    <t>voter25</t>
-  </si>
-  <si>
-    <t>voter26</t>
-  </si>
-  <si>
-    <t>voter27</t>
-  </si>
-  <si>
-    <t>voter28</t>
-  </si>
-  <si>
-    <t>voter29</t>
-  </si>
-  <si>
-    <t>voter30</t>
-  </si>
-  <si>
-    <t>voter31</t>
-  </si>
-  <si>
-    <t>voter32</t>
-  </si>
-  <si>
-    <t>voter33</t>
-  </si>
-  <si>
-    <t>voter34</t>
-  </si>
-  <si>
-    <t>voter35</t>
-  </si>
-  <si>
-    <t>voter36</t>
-  </si>
-  <si>
-    <t>voter37</t>
-  </si>
-  <si>
-    <t>voter38</t>
-  </si>
-  <si>
-    <t>voter39</t>
-  </si>
-  <si>
-    <t>voter40</t>
-  </si>
-  <si>
-    <t>voter41</t>
-  </si>
-  <si>
-    <t>voter42</t>
-  </si>
-  <si>
-    <t>voter43</t>
-  </si>
-  <si>
-    <t>voter44</t>
-  </si>
-  <si>
-    <t>voter45</t>
-  </si>
-  <si>
-    <t>voter46</t>
-  </si>
-  <si>
-    <t>voter47</t>
-  </si>
-  <si>
-    <t>voter48</t>
-  </si>
-  <si>
-    <t>voter49</t>
-  </si>
-  <si>
-    <t>voter50</t>
-  </si>
-  <si>
-    <t>voter51</t>
-  </si>
-  <si>
-    <t>voter52</t>
-  </si>
-  <si>
-    <t>voter53</t>
-  </si>
-  <si>
-    <t>voter54</t>
-  </si>
-  <si>
-    <t>voter55</t>
-  </si>
-  <si>
-    <t>voter56</t>
-  </si>
-  <si>
-    <t>voter57</t>
-  </si>
-  <si>
-    <t>voter58</t>
-  </si>
-  <si>
-    <t>voter59</t>
-  </si>
-  <si>
-    <t>voter60</t>
-  </si>
-  <si>
-    <t>voter61</t>
-  </si>
-  <si>
-    <t>voter62</t>
-  </si>
-  <si>
-    <t>voter63</t>
-  </si>
-  <si>
-    <t>voter64</t>
-  </si>
-  <si>
-    <t>voter65</t>
-  </si>
-  <si>
-    <t>voter66</t>
-  </si>
-  <si>
-    <t>voter67</t>
-  </si>
-  <si>
-    <t>voter68</t>
-  </si>
-  <si>
-    <t>voter69</t>
-  </si>
-  <si>
-    <t>voter70</t>
-  </si>
-  <si>
-    <t>voter71</t>
-  </si>
-  <si>
-    <t>voter72</t>
-  </si>
-  <si>
-    <t>voter73</t>
-  </si>
-  <si>
-    <t>voter74</t>
-  </si>
-  <si>
-    <t>voter75</t>
-  </si>
-  <si>
-    <t>voter76</t>
-  </si>
-  <si>
-    <t>voter77</t>
-  </si>
-  <si>
-    <t>voter78</t>
-  </si>
-  <si>
-    <t>voter79</t>
-  </si>
-  <si>
-    <t>voter80</t>
-  </si>
-  <si>
-    <t>voter81</t>
-  </si>
-  <si>
-    <t>voter82</t>
-  </si>
-  <si>
-    <t>voter83</t>
-  </si>
-  <si>
-    <t>voter84</t>
-  </si>
-  <si>
-    <t>voter85</t>
-  </si>
-  <si>
-    <t>voter86</t>
-  </si>
-  <si>
-    <t>voter87</t>
-  </si>
-  <si>
-    <t>voter88</t>
-  </si>
-  <si>
-    <t>voter89</t>
-  </si>
-  <si>
-    <t>voter90</t>
-  </si>
-  <si>
-    <t>voter91</t>
-  </si>
-  <si>
-    <t>voter92</t>
-  </si>
-  <si>
-    <t>voter93</t>
-  </si>
-  <si>
-    <t>voter94</t>
-  </si>
-  <si>
-    <t>voter95</t>
-  </si>
-  <si>
-    <t>voter96</t>
-  </si>
-  <si>
-    <t>voter97</t>
-  </si>
-  <si>
-    <t>voter98</t>
-  </si>
-  <si>
-    <t>voter99</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -372,35 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -688,42 +421,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>project0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>project1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>project2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>project3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>project4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>project5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>voter0</t>
+        </is>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -738,21 +491,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>voter1</t>
+        </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -761,18 +516,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>voter2</t>
+        </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -784,12 +541,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>voter3</t>
+        </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -801,24 +560,26 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>voter4</t>
+        </is>
       </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -827,24 +588,26 @@
         <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>voter5</t>
+        </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -853,9 +616,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>voter6</t>
+        </is>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -867,47 +632,51 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>voter7</t>
+        </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>voter8</t>
+        </is>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -919,47 +688,51 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>voter9</t>
+        </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>voter10</t>
+        </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -968,9 +741,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>voter11</t>
+        </is>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -979,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -991,225 +766,245 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>voter12</t>
+        </is>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>voter13</t>
+        </is>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>voter14</t>
+        </is>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>voter15</t>
+        </is>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>voter16</t>
+        </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>voter17</t>
+        </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>voter18</t>
+        </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>voter19</t>
+        </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>voter20</t>
+        </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>voter21</t>
+        </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1218,21 +1013,23 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>voter22</t>
+        </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -1244,35 +1041,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>voter23</t>
+        </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>voter24</t>
+        </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1290,9 +1091,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>voter25</t>
+        </is>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -1304,18 +1107,20 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>voter26</t>
+        </is>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -1330,15 +1135,17 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>voter27</t>
+        </is>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -1347,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -1359,9 +1166,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>voter28</t>
+        </is>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -1376,84 +1185,92 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>voter29</t>
+        </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>voter30</t>
+        </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>voter31</t>
+        </is>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>voter32</t>
+        </is>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -1468,15 +1285,17 @@
         <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>voter33</t>
+        </is>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -1497,9 +1316,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>40</v>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>voter34</t>
+        </is>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -1514,96 +1335,104 @@
         <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>41</v>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>voter35</t>
+        </is>
       </c>
       <c r="B37" t="b">
         <v>0</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>voter36</t>
+        </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>voter37</t>
+        </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>voter38</t>
+        </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -1612,32 +1441,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>voter39</t>
+        </is>
       </c>
       <c r="B41" t="b">
         <v>1</v>
       </c>
       <c r="C41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>voter40</t>
+        </is>
       </c>
       <c r="B42" t="b">
         <v>1</v>
@@ -1646,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1655,41 +1488,45 @@
         <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>voter41</t>
+        </is>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>voter42</t>
+        </is>
       </c>
       <c r="B44" t="b">
         <v>0</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1698,18 +1535,20 @@
         <v>0</v>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
-        <v>49</v>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>voter43</t>
+        </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -1718,21 +1557,23 @@
         <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>voter44</t>
+        </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -1750,9 +1591,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>51</v>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>voter45</t>
+        </is>
       </c>
       <c r="B47" t="b">
         <v>0</v>
@@ -1761,21 +1604,23 @@
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>voter46</t>
+        </is>
       </c>
       <c r="B48" t="b">
         <v>0</v>
@@ -1784,21 +1629,23 @@
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>53</v>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>voter47</t>
+        </is>
       </c>
       <c r="B49" t="b">
         <v>0</v>
@@ -1807,73 +1654,79 @@
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>54</v>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>voter48</t>
+        </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>voter49</t>
+        </is>
       </c>
       <c r="B51" t="b">
         <v>0</v>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>voter50</t>
+        </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -1885,12 +1738,14 @@
         <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>voter51</t>
+        </is>
       </c>
       <c r="B53" t="b">
         <v>0</v>
@@ -1905,44 +1760,48 @@
         <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>voter52</t>
+        </is>
       </c>
       <c r="B54" t="b">
         <v>0</v>
       </c>
       <c r="C54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
-        <v>59</v>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>voter53</t>
+        </is>
       </c>
       <c r="B55" t="b">
         <v>0</v>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -1957,9 +1816,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>60</v>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>voter54</t>
+        </is>
       </c>
       <c r="B56" t="b">
         <v>0</v>
@@ -1971,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -1980,18 +1841,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>61</v>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>voter55</t>
+        </is>
       </c>
       <c r="B57" t="b">
         <v>0</v>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -2003,32 +1866,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>voter56</t>
+        </is>
       </c>
       <c r="B58" t="b">
         <v>1</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>63</v>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>voter57</t>
+        </is>
       </c>
       <c r="B59" t="b">
         <v>0</v>
@@ -2037,21 +1904,23 @@
         <v>1</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>64</v>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>voter58</t>
+        </is>
       </c>
       <c r="B60" t="b">
         <v>0</v>
@@ -2060,30 +1929,32 @@
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>voter59</t>
+        </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -2092,15 +1963,17 @@
         <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>voter60</t>
+        </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -2109,18 +1982,20 @@
         <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>voter61</t>
+        </is>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -2129,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -2138,24 +2013,26 @@
         <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>voter62</t>
+        </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -2164,32 +2041,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1" t="s">
-        <v>69</v>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>voter63</t>
+        </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>voter64</t>
+        </is>
       </c>
       <c r="B66" t="b">
         <v>1</v>
@@ -2201,18 +2082,20 @@
         <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>voter65</t>
+        </is>
       </c>
       <c r="B67" t="b">
         <v>0</v>
@@ -2233,12 +2116,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
-        <v>72</v>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>voter66</t>
+        </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -2247,18 +2132,20 @@
         <v>1</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>voter67</t>
+        </is>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -2273,64 +2160,70 @@
         <v>1</v>
       </c>
       <c r="F69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
-        <v>74</v>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>voter68</t>
+        </is>
       </c>
       <c r="B70" t="b">
         <v>0</v>
       </c>
       <c r="C70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>voter69</t>
+        </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
-        <v>76</v>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>voter70</t>
+        </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -2339,53 +2232,57 @@
         <v>1</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>voter71</t>
+        </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>voter72</t>
+        </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
@@ -2394,58 +2291,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="1" t="s">
-        <v>79</v>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>voter73</t>
+        </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>voter74</t>
+        </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>voter75</t>
+        </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -2454,50 +2357,54 @@
         <v>1</v>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>voter76</t>
+        </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>voter77</t>
+        </is>
       </c>
       <c r="B79" t="b">
         <v>1</v>
       </c>
       <c r="C79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
         <v>1</v>
@@ -2509,38 +2416,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="1" t="s">
-        <v>84</v>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>voter78</t>
+        </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>voter79</t>
+        </is>
       </c>
       <c r="B81" t="b">
         <v>1</v>
       </c>
       <c r="C81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -2555,35 +2466,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1" t="s">
-        <v>86</v>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>voter80</t>
+        </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>voter81</t>
+        </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -2595,61 +2510,67 @@
         <v>0</v>
       </c>
       <c r="F83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1" t="s">
-        <v>88</v>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>voter82</t>
+        </is>
       </c>
       <c r="B84" t="b">
         <v>0</v>
       </c>
       <c r="C84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>voter83</t>
+        </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>voter84</t>
+        </is>
       </c>
       <c r="B86" t="b">
         <v>0</v>
@@ -2661,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="b">
         <v>1</v>
@@ -2670,58 +2591,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="1" t="s">
-        <v>91</v>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>voter85</t>
+        </is>
       </c>
       <c r="B87" t="b">
         <v>0</v>
       </c>
       <c r="C87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>voter86</t>
+        </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>voter87</t>
+        </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -2730,18 +2657,20 @@
         <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>voter88</t>
+        </is>
       </c>
       <c r="B90" t="b">
         <v>0</v>
@@ -2750,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
@@ -2762,18 +2691,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
-        <v>95</v>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>voter89</t>
+        </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
@@ -2785,35 +2716,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="1" t="s">
-        <v>96</v>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>voter90</t>
+        </is>
       </c>
       <c r="B92" t="b">
         <v>0</v>
       </c>
       <c r="C92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>voter91</t>
+        </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -2822,24 +2757,26 @@
         <v>1</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="1" t="s">
-        <v>98</v>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>voter92</t>
+        </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
@@ -2848,15 +2785,17 @@
         <v>1</v>
       </c>
       <c r="F94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="1" t="s">
-        <v>99</v>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>voter93</t>
+        </is>
       </c>
       <c r="B95" t="b">
         <v>1</v>
@@ -2865,30 +2804,32 @@
         <v>1</v>
       </c>
       <c r="D95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>voter94</t>
+        </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="b">
         <v>1</v>
@@ -2900,12 +2841,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="1" t="s">
-        <v>101</v>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>voter95</t>
+        </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -2914,44 +2857,48 @@
         <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>voter96</t>
+        </is>
       </c>
       <c r="B98" t="b">
         <v>0</v>
       </c>
       <c r="C98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>voter97</t>
+        </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -2969,9 +2916,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="1" t="s">
-        <v>104</v>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>voter98</t>
+        </is>
       </c>
       <c r="B100" t="b">
         <v>0</v>
@@ -2992,30 +2941,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="1" t="s">
-        <v>105</v>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>voter99</t>
+        </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -510,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -582,10 +582,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -623,19 +623,19 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -651,16 +651,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -698,22 +698,22 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -776,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -798,22 +798,22 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -898,22 +898,22 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -926,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -973,22 +973,22 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1001,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1079,16 +1079,16 @@
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1201,19 +1201,19 @@
         <v>1</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1232,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1248,22 +1248,22 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1398,19 +1398,19 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -1457,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -1501,16 +1501,16 @@
         <v>1</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1551,19 +1551,19 @@
         <v>1</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1598,22 +1598,22 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1629,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -1676,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -1698,22 +1698,22 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1723,22 +1723,22 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1760,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1779,16 +1779,16 @@
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1798,19 +1798,19 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -1832,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1948,22 +1948,22 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1998,19 +1998,19 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -2026,16 +2026,16 @@
         <v>1</v>
       </c>
       <c r="C64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -2079,16 +2079,16 @@
         <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2098,19 +2098,19 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2148,22 +2148,22 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2176,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="C70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2198,22 +2198,22 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2226,16 +2226,16 @@
         <v>0</v>
       </c>
       <c r="C72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
@@ -2323,19 +2323,19 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -2354,13 +2354,13 @@
         <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -2373,19 +2373,19 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -2398,22 +2398,22 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2423,19 +2423,19 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -2448,19 +2448,19 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="D81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
@@ -2573,22 +2573,22 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="b">
         <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2601,16 +2601,16 @@
         <v>0</v>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -2626,19 +2626,19 @@
         <v>1</v>
       </c>
       <c r="C88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="C89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -2673,10 +2673,10 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2701,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="C91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>1</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -2773,13 +2773,13 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="b">
         <v>1</v>
@@ -2798,13 +2798,13 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="C97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="F98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2898,10 +2898,10 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
@@ -2910,10 +2910,10 @@
         <v>1</v>
       </c>
       <c r="F99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2923,16 +2923,16 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
@@ -2954,13 +2954,13 @@
         <v>1</v>
       </c>
       <c r="D101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -1,37 +1,363 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+  <si>
+    <t>project0</t>
+  </si>
+  <si>
+    <t>project1</t>
+  </si>
+  <si>
+    <t>project2</t>
+  </si>
+  <si>
+    <t>project3</t>
+  </si>
+  <si>
+    <t>project4</t>
+  </si>
+  <si>
+    <t>project5</t>
+  </si>
+  <si>
+    <t>voter0</t>
+  </si>
+  <si>
+    <t>voter1</t>
+  </si>
+  <si>
+    <t>voter2</t>
+  </si>
+  <si>
+    <t>voter3</t>
+  </si>
+  <si>
+    <t>voter4</t>
+  </si>
+  <si>
+    <t>voter5</t>
+  </si>
+  <si>
+    <t>voter6</t>
+  </si>
+  <si>
+    <t>voter7</t>
+  </si>
+  <si>
+    <t>voter8</t>
+  </si>
+  <si>
+    <t>voter9</t>
+  </si>
+  <si>
+    <t>voter10</t>
+  </si>
+  <si>
+    <t>voter11</t>
+  </si>
+  <si>
+    <t>voter12</t>
+  </si>
+  <si>
+    <t>voter13</t>
+  </si>
+  <si>
+    <t>voter14</t>
+  </si>
+  <si>
+    <t>voter15</t>
+  </si>
+  <si>
+    <t>voter16</t>
+  </si>
+  <si>
+    <t>voter17</t>
+  </si>
+  <si>
+    <t>voter18</t>
+  </si>
+  <si>
+    <t>voter19</t>
+  </si>
+  <si>
+    <t>voter20</t>
+  </si>
+  <si>
+    <t>voter21</t>
+  </si>
+  <si>
+    <t>voter22</t>
+  </si>
+  <si>
+    <t>voter23</t>
+  </si>
+  <si>
+    <t>voter24</t>
+  </si>
+  <si>
+    <t>voter25</t>
+  </si>
+  <si>
+    <t>voter26</t>
+  </si>
+  <si>
+    <t>voter27</t>
+  </si>
+  <si>
+    <t>voter28</t>
+  </si>
+  <si>
+    <t>voter29</t>
+  </si>
+  <si>
+    <t>voter30</t>
+  </si>
+  <si>
+    <t>voter31</t>
+  </si>
+  <si>
+    <t>voter32</t>
+  </si>
+  <si>
+    <t>voter33</t>
+  </si>
+  <si>
+    <t>voter34</t>
+  </si>
+  <si>
+    <t>voter35</t>
+  </si>
+  <si>
+    <t>voter36</t>
+  </si>
+  <si>
+    <t>voter37</t>
+  </si>
+  <si>
+    <t>voter38</t>
+  </si>
+  <si>
+    <t>voter39</t>
+  </si>
+  <si>
+    <t>voter40</t>
+  </si>
+  <si>
+    <t>voter41</t>
+  </si>
+  <si>
+    <t>voter42</t>
+  </si>
+  <si>
+    <t>voter43</t>
+  </si>
+  <si>
+    <t>voter44</t>
+  </si>
+  <si>
+    <t>voter45</t>
+  </si>
+  <si>
+    <t>voter46</t>
+  </si>
+  <si>
+    <t>voter47</t>
+  </si>
+  <si>
+    <t>voter48</t>
+  </si>
+  <si>
+    <t>voter49</t>
+  </si>
+  <si>
+    <t>voter50</t>
+  </si>
+  <si>
+    <t>voter51</t>
+  </si>
+  <si>
+    <t>voter52</t>
+  </si>
+  <si>
+    <t>voter53</t>
+  </si>
+  <si>
+    <t>voter54</t>
+  </si>
+  <si>
+    <t>voter55</t>
+  </si>
+  <si>
+    <t>voter56</t>
+  </si>
+  <si>
+    <t>voter57</t>
+  </si>
+  <si>
+    <t>voter58</t>
+  </si>
+  <si>
+    <t>voter59</t>
+  </si>
+  <si>
+    <t>voter60</t>
+  </si>
+  <si>
+    <t>voter61</t>
+  </si>
+  <si>
+    <t>voter62</t>
+  </si>
+  <si>
+    <t>voter63</t>
+  </si>
+  <si>
+    <t>voter64</t>
+  </si>
+  <si>
+    <t>voter65</t>
+  </si>
+  <si>
+    <t>voter66</t>
+  </si>
+  <si>
+    <t>voter67</t>
+  </si>
+  <si>
+    <t>voter68</t>
+  </si>
+  <si>
+    <t>voter69</t>
+  </si>
+  <si>
+    <t>voter70</t>
+  </si>
+  <si>
+    <t>voter71</t>
+  </si>
+  <si>
+    <t>voter72</t>
+  </si>
+  <si>
+    <t>voter73</t>
+  </si>
+  <si>
+    <t>voter74</t>
+  </si>
+  <si>
+    <t>voter75</t>
+  </si>
+  <si>
+    <t>voter76</t>
+  </si>
+  <si>
+    <t>voter77</t>
+  </si>
+  <si>
+    <t>voter78</t>
+  </si>
+  <si>
+    <t>voter79</t>
+  </si>
+  <si>
+    <t>voter80</t>
+  </si>
+  <si>
+    <t>voter81</t>
+  </si>
+  <si>
+    <t>voter82</t>
+  </si>
+  <si>
+    <t>voter83</t>
+  </si>
+  <si>
+    <t>voter84</t>
+  </si>
+  <si>
+    <t>voter85</t>
+  </si>
+  <si>
+    <t>voter86</t>
+  </si>
+  <si>
+    <t>voter87</t>
+  </si>
+  <si>
+    <t>voter88</t>
+  </si>
+  <si>
+    <t>voter89</t>
+  </si>
+  <si>
+    <t>voter90</t>
+  </si>
+  <si>
+    <t>voter91</t>
+  </si>
+  <si>
+    <t>voter92</t>
+  </si>
+  <si>
+    <t>voter93</t>
+  </si>
+  <si>
+    <t>voter94</t>
+  </si>
+  <si>
+    <t>voter95</t>
+  </si>
+  <si>
+    <t>voter96</t>
+  </si>
+  <si>
+    <t>voter97</t>
+  </si>
+  <si>
+    <t>voter98</t>
+  </si>
+  <si>
+    <t>voter99</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +372,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -421,106 +688,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>project0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>project1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>project2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>project3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>project4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>project5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>voter0</t>
-        </is>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>voter1</t>
-        </is>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>voter2</t>
-        </is>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -532,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -541,11 +784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>voter3</t>
-        </is>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -563,17 +804,15 @@
         <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>voter4</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -582,29 +821,27 @@
         <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>voter5</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -613,48 +850,44 @@
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>voter6</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>voter7</t>
-        </is>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -663,42 +896,38 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>voter8</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>voter9</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -710,76 +939,70 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>voter10</t>
-        </is>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>voter11</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>voter12</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -788,45 +1011,41 @@
         <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>voter13</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>voter14</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -841,36 +1060,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>voter15</t>
-        </is>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>voter16</t>
-        </is>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -891,20 +1106,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>voter17</t>
-        </is>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -913,14 +1126,12 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>voter18</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -941,261 +1152,239 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>voter19</t>
-        </is>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>voter20</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>voter21</t>
-        </is>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>voter22</t>
-        </is>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>voter23</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>voter24</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>voter25</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>voter26</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>voter27</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>voter28</t>
-        </is>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>voter29</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -1207,26 +1396,24 @@
         <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>voter30</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1235,48 +1422,44 @@
         <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>voter31</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>voter32</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1291,17 +1474,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>voter33</t>
-        </is>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1313,14 +1494,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>voter34</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -1335,42 +1514,38 @@
         <v>1</v>
       </c>
       <c r="F36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>voter35</t>
-        </is>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>voter36</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
@@ -1379,51 +1554,47 @@
         <v>0</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>voter37</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>voter38</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -1441,14 +1612,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>voter39</t>
-        </is>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -1457,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1466,14 +1635,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>voter40</t>
-        </is>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -1482,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -1491,17 +1658,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>voter41</t>
-        </is>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1510,17 +1675,15 @@
         <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>voter42</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -1529,23 +1692,21 @@
         <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>voter43</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -1560,17 +1721,15 @@
         <v>1</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>voter44</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B46" t="b">
         <v>0</v>
@@ -1579,23 +1738,21 @@
         <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>voter45</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
@@ -1616,45 +1773,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>voter46</t>
-        </is>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>voter47</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B49" t="b">
         <v>0</v>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -1666,14 +1819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>voter48</t>
-        </is>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -1682,20 +1833,18 @@
         <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>voter49</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -1704,48 +1853,44 @@
         <v>1</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>voter50</t>
-        </is>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>voter51</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
@@ -1754,23 +1899,21 @@
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>voter52</t>
-        </is>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B54" t="b">
         <v>0</v>
@@ -1782,20 +1925,18 @@
         <v>1</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>voter53</t>
-        </is>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
@@ -1807,45 +1948,41 @@
         <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>voter54</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>voter55</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -1857,45 +1994,41 @@
         <v>1</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>voter56</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>voter57</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B59" t="b">
         <v>0</v>
@@ -1913,17 +2046,15 @@
         <v>0</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>voter58</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -1935,54 +2066,50 @@
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>voter59</t>
-        </is>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>voter60</t>
-        </is>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -1991,11 +2118,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>voter61</t>
-        </is>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B63" t="b">
         <v>0</v>
@@ -2016,17 +2141,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>voter62</t>
-        </is>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -2038,48 +2161,44 @@
         <v>0</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>voter63</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B65" t="b">
         <v>0</v>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>voter64</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
@@ -2088,14 +2207,12 @@
         <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>voter65</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
@@ -2113,64 +2230,58 @@
         <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>voter66</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>voter67</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>voter68</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B70" t="b">
         <v>0</v>
@@ -2185,17 +2296,15 @@
         <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>voter69</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
@@ -2204,48 +2313,44 @@
         <v>1</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>voter70</t>
-        </is>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>voter71</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B73" t="b">
         <v>0</v>
@@ -2266,23 +2371,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>voter72</t>
-        </is>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -2291,61 +2394,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>voter73</t>
-        </is>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>voter74</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>voter75</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B77" t="b">
         <v>0</v>
@@ -2360,17 +2457,15 @@
         <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>voter76</t>
-        </is>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B78" t="b">
         <v>0</v>
@@ -2391,36 +2486,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>voter77</t>
-        </is>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>voter78</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B80" t="b">
         <v>0</v>
@@ -2438,89 +2529,81 @@
         <v>0</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>voter79</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>voter80</t>
-        </is>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>voter81</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>voter82</t>
-        </is>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B84" t="b">
         <v>1</v>
@@ -2529,26 +2612,24 @@
         <v>1</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>voter83</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -2557,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2566,70 +2647,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>voter84</t>
-        </is>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>voter85</t>
-        </is>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B87" t="b">
         <v>0</v>
       </c>
       <c r="C87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>voter86</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
@@ -2641,17 +2716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>voter87</t>
-        </is>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B89" t="b">
         <v>1</v>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -2660,17 +2733,15 @@
         <v>1</v>
       </c>
       <c r="F89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>voter88</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B90" t="b">
         <v>1</v>
@@ -2679,98 +2750,90 @@
         <v>1</v>
       </c>
       <c r="D90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>voter89</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>voter90</t>
-        </is>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>voter91</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B93" t="b">
         <v>1</v>
       </c>
       <c r="C93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>voter92</t>
-        </is>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B94" t="b">
         <v>1</v>
@@ -2785,20 +2848,18 @@
         <v>1</v>
       </c>
       <c r="F94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>voter93</t>
-        </is>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -2807,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
@@ -2816,11 +2877,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>voter94</t>
-        </is>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B96" t="b">
         <v>1</v>
@@ -2835,17 +2894,15 @@
         <v>1</v>
       </c>
       <c r="F96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>voter95</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B97" t="b">
         <v>0</v>
@@ -2854,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
@@ -2863,39 +2920,35 @@
         <v>0</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>voter96</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B98" t="b">
         <v>0</v>
       </c>
       <c r="C98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>voter97</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B99" t="b">
         <v>1</v>
@@ -2904,69 +2957,65 @@
         <v>0</v>
       </c>
       <c r="D99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>voter98</t>
-        </is>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
       </c>
       <c r="D100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>voter99</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B101" t="b">
         <v>1</v>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -1,363 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
-  <si>
-    <t>project0</t>
-  </si>
-  <si>
-    <t>project1</t>
-  </si>
-  <si>
-    <t>project2</t>
-  </si>
-  <si>
-    <t>project3</t>
-  </si>
-  <si>
-    <t>project4</t>
-  </si>
-  <si>
-    <t>project5</t>
-  </si>
-  <si>
-    <t>voter0</t>
-  </si>
-  <si>
-    <t>voter1</t>
-  </si>
-  <si>
-    <t>voter2</t>
-  </si>
-  <si>
-    <t>voter3</t>
-  </si>
-  <si>
-    <t>voter4</t>
-  </si>
-  <si>
-    <t>voter5</t>
-  </si>
-  <si>
-    <t>voter6</t>
-  </si>
-  <si>
-    <t>voter7</t>
-  </si>
-  <si>
-    <t>voter8</t>
-  </si>
-  <si>
-    <t>voter9</t>
-  </si>
-  <si>
-    <t>voter10</t>
-  </si>
-  <si>
-    <t>voter11</t>
-  </si>
-  <si>
-    <t>voter12</t>
-  </si>
-  <si>
-    <t>voter13</t>
-  </si>
-  <si>
-    <t>voter14</t>
-  </si>
-  <si>
-    <t>voter15</t>
-  </si>
-  <si>
-    <t>voter16</t>
-  </si>
-  <si>
-    <t>voter17</t>
-  </si>
-  <si>
-    <t>voter18</t>
-  </si>
-  <si>
-    <t>voter19</t>
-  </si>
-  <si>
-    <t>voter20</t>
-  </si>
-  <si>
-    <t>voter21</t>
-  </si>
-  <si>
-    <t>voter22</t>
-  </si>
-  <si>
-    <t>voter23</t>
-  </si>
-  <si>
-    <t>voter24</t>
-  </si>
-  <si>
-    <t>voter25</t>
-  </si>
-  <si>
-    <t>voter26</t>
-  </si>
-  <si>
-    <t>voter27</t>
-  </si>
-  <si>
-    <t>voter28</t>
-  </si>
-  <si>
-    <t>voter29</t>
-  </si>
-  <si>
-    <t>voter30</t>
-  </si>
-  <si>
-    <t>voter31</t>
-  </si>
-  <si>
-    <t>voter32</t>
-  </si>
-  <si>
-    <t>voter33</t>
-  </si>
-  <si>
-    <t>voter34</t>
-  </si>
-  <si>
-    <t>voter35</t>
-  </si>
-  <si>
-    <t>voter36</t>
-  </si>
-  <si>
-    <t>voter37</t>
-  </si>
-  <si>
-    <t>voter38</t>
-  </si>
-  <si>
-    <t>voter39</t>
-  </si>
-  <si>
-    <t>voter40</t>
-  </si>
-  <si>
-    <t>voter41</t>
-  </si>
-  <si>
-    <t>voter42</t>
-  </si>
-  <si>
-    <t>voter43</t>
-  </si>
-  <si>
-    <t>voter44</t>
-  </si>
-  <si>
-    <t>voter45</t>
-  </si>
-  <si>
-    <t>voter46</t>
-  </si>
-  <si>
-    <t>voter47</t>
-  </si>
-  <si>
-    <t>voter48</t>
-  </si>
-  <si>
-    <t>voter49</t>
-  </si>
-  <si>
-    <t>voter50</t>
-  </si>
-  <si>
-    <t>voter51</t>
-  </si>
-  <si>
-    <t>voter52</t>
-  </si>
-  <si>
-    <t>voter53</t>
-  </si>
-  <si>
-    <t>voter54</t>
-  </si>
-  <si>
-    <t>voter55</t>
-  </si>
-  <si>
-    <t>voter56</t>
-  </si>
-  <si>
-    <t>voter57</t>
-  </si>
-  <si>
-    <t>voter58</t>
-  </si>
-  <si>
-    <t>voter59</t>
-  </si>
-  <si>
-    <t>voter60</t>
-  </si>
-  <si>
-    <t>voter61</t>
-  </si>
-  <si>
-    <t>voter62</t>
-  </si>
-  <si>
-    <t>voter63</t>
-  </si>
-  <si>
-    <t>voter64</t>
-  </si>
-  <si>
-    <t>voter65</t>
-  </si>
-  <si>
-    <t>voter66</t>
-  </si>
-  <si>
-    <t>voter67</t>
-  </si>
-  <si>
-    <t>voter68</t>
-  </si>
-  <si>
-    <t>voter69</t>
-  </si>
-  <si>
-    <t>voter70</t>
-  </si>
-  <si>
-    <t>voter71</t>
-  </si>
-  <si>
-    <t>voter72</t>
-  </si>
-  <si>
-    <t>voter73</t>
-  </si>
-  <si>
-    <t>voter74</t>
-  </si>
-  <si>
-    <t>voter75</t>
-  </si>
-  <si>
-    <t>voter76</t>
-  </si>
-  <si>
-    <t>voter77</t>
-  </si>
-  <si>
-    <t>voter78</t>
-  </si>
-  <si>
-    <t>voter79</t>
-  </si>
-  <si>
-    <t>voter80</t>
-  </si>
-  <si>
-    <t>voter81</t>
-  </si>
-  <si>
-    <t>voter82</t>
-  </si>
-  <si>
-    <t>voter83</t>
-  </si>
-  <si>
-    <t>voter84</t>
-  </si>
-  <si>
-    <t>voter85</t>
-  </si>
-  <si>
-    <t>voter86</t>
-  </si>
-  <si>
-    <t>voter87</t>
-  </si>
-  <si>
-    <t>voter88</t>
-  </si>
-  <si>
-    <t>voter89</t>
-  </si>
-  <si>
-    <t>voter90</t>
-  </si>
-  <si>
-    <t>voter91</t>
-  </si>
-  <si>
-    <t>voter92</t>
-  </si>
-  <si>
-    <t>voter93</t>
-  </si>
-  <si>
-    <t>voter94</t>
-  </si>
-  <si>
-    <t>voter95</t>
-  </si>
-  <si>
-    <t>voter96</t>
-  </si>
-  <si>
-    <t>voter97</t>
-  </si>
-  <si>
-    <t>voter98</t>
-  </si>
-  <si>
-    <t>voter99</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -372,35 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -688,59 +421,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>project0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>project1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>project2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>project3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>project4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>project5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>voter0</t>
+        </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>voter1</t>
+        </is>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -749,50 +504,54 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>voter2</t>
+        </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>voter3</t>
+        </is>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -807,44 +566,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>voter4</t>
+        </is>
       </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>voter5</t>
+        </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -853,41 +616,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>voter6</t>
+        </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>voter7</t>
+        </is>
       </c>
       <c r="B9" t="b">
         <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -896,18 +663,20 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>voter8</t>
+        </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -922,18 +691,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>voter9</t>
+        </is>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -942,38 +713,42 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>voter10</t>
+        </is>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>voter11</t>
+        </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -982,41 +757,45 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>voter12</t>
+        </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>voter13</t>
+        </is>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -1037,9 +816,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>voter14</t>
+        </is>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -1048,21 +829,23 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>voter15</t>
+        </is>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -1083,21 +866,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>voter16</t>
+        </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1106,18 +891,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>voter17</t>
+        </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1126,38 +913,42 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>voter18</t>
+        </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>voter19</t>
+        </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1172,64 +963,70 @@
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>voter20</t>
+        </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>voter21</t>
+        </is>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>voter22</t>
+        </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1244,9 +1041,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>voter23</t>
+        </is>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -1255,44 +1054,48 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>voter24</t>
+        </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>voter25</t>
+        </is>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -1304,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1313,12 +1116,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>voter26</t>
+        </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1330,15 +1135,17 @@
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>voter27</t>
+        </is>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -1353,73 +1160,79 @@
         <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>voter28</t>
+        </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>voter29</t>
+        </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>voter30</t>
+        </is>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1428,21 +1241,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>voter31</t>
+        </is>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1451,9 +1266,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>voter32</t>
+        </is>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -1474,21 +1291,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>voter33</t>
+        </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1497,9 +1316,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>40</v>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>voter34</t>
+        </is>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -1514,47 +1335,51 @@
         <v>1</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>41</v>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>voter35</t>
+        </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>voter36</t>
+        </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1563,12 +1388,14 @@
         <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>voter37</t>
+        </is>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -1583,15 +1410,17 @@
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>44</v>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>voter38</t>
+        </is>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -1600,53 +1429,57 @@
         <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>voter39</t>
+        </is>
       </c>
       <c r="B41" t="b">
         <v>1</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>voter40</t>
+        </is>
       </c>
       <c r="B42" t="b">
         <v>1</v>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1658,41 +1491,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>47</v>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>voter41</t>
+        </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>48</v>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>voter42</t>
+        </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -1701,12 +1538,14 @@
         <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>voter43</t>
+        </is>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -1721,18 +1560,20 @@
         <v>1</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>voter44</t>
+        </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -1744,44 +1585,48 @@
         <v>0</v>
       </c>
       <c r="F46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>voter45</t>
+        </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>voter46</t>
+        </is>
       </c>
       <c r="B48" t="b">
         <v>1</v>
       </c>
       <c r="C48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -1790,21 +1635,23 @@
         <v>1</v>
       </c>
       <c r="F48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>53</v>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>voter47</t>
+        </is>
       </c>
       <c r="B49" t="b">
         <v>0</v>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -1819,12 +1666,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>54</v>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>voter48</t>
+        </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -1833,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1842,9 +1691,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>voter49</t>
+        </is>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -1856,30 +1707,32 @@
         <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>56</v>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>voter50</t>
+        </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -1888,41 +1741,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>57</v>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>voter51</t>
+        </is>
       </c>
       <c r="B53" t="b">
         <v>1</v>
       </c>
       <c r="C53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>voter52</t>
+        </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -1934,12 +1791,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
-        <v>59</v>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>voter53</t>
+        </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -1948,18 +1807,20 @@
         <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>voter54</t>
+        </is>
       </c>
       <c r="B56" t="b">
         <v>1</v>
@@ -1971,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -1980,9 +1841,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>61</v>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>voter55</t>
+        </is>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -2003,35 +1866,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>voter56</t>
+        </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>voter57</t>
+        </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -2049,12 +1916,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>64</v>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>voter58</t>
+        </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -2066,15 +1935,17 @@
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>voter59</t>
+        </is>
       </c>
       <c r="B61" t="b">
         <v>1</v>
@@ -2092,58 +1963,64 @@
         <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>voter60</t>
+        </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>voter61</t>
+        </is>
       </c>
       <c r="B63" t="b">
         <v>0</v>
       </c>
       <c r="C63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>voter62</t>
+        </is>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -2152,30 +2029,32 @@
         <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1" t="s">
-        <v>69</v>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>voter63</t>
+        </is>
       </c>
       <c r="B65" t="b">
         <v>0</v>
       </c>
       <c r="C65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -2184,24 +2063,26 @@
         <v>0</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>voter64</t>
+        </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
@@ -2210,55 +2091,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1" t="s">
-        <v>71</v>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>voter65</t>
+        </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>voter66</t>
+        </is>
       </c>
       <c r="B68" t="b">
         <v>1</v>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
-        <v>73</v>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>voter67</t>
+        </is>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -2267,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -2276,44 +2163,48 @@
         <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>voter68</t>
+        </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>voter69</t>
+        </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
@@ -2322,35 +2213,39 @@
         <v>0</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>voter70</t>
+        </is>
       </c>
       <c r="B72" t="b">
         <v>1</v>
       </c>
       <c r="C72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>voter71</t>
+        </is>
       </c>
       <c r="B73" t="b">
         <v>0</v>
@@ -2371,9 +2266,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
-        <v>78</v>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>voter72</t>
+        </is>
       </c>
       <c r="B74" t="b">
         <v>1</v>
@@ -2388,18 +2285,20 @@
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>voter73</t>
+        </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -2408,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -2417,9 +2316,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
-        <v>80</v>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>voter74</t>
+        </is>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -2440,9 +2341,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="1" t="s">
-        <v>81</v>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>voter75</t>
+        </is>
       </c>
       <c r="B77" t="b">
         <v>0</v>
@@ -2454,41 +2357,45 @@
         <v>0</v>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>voter76</t>
+        </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>voter77</t>
+        </is>
       </c>
       <c r="B79" t="b">
         <v>1</v>
@@ -2506,24 +2413,26 @@
         <v>0</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>voter78</t>
+        </is>
       </c>
       <c r="B80" t="b">
         <v>0</v>
       </c>
       <c r="C80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2532,15 +2441,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="1" t="s">
-        <v>85</v>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>voter79</t>
+        </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -2549,38 +2460,42 @@
         <v>1</v>
       </c>
       <c r="F81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>voter80</t>
+        </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>voter81</t>
+        </is>
       </c>
       <c r="B83" t="b">
         <v>1</v>
@@ -2592,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
@@ -2601,41 +2516,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1" t="s">
-        <v>88</v>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>voter82</t>
+        </is>
       </c>
       <c r="B84" t="b">
         <v>1</v>
       </c>
       <c r="C84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="1" t="s">
-        <v>89</v>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>voter83</t>
+        </is>
       </c>
       <c r="B85" t="b">
         <v>1</v>
       </c>
       <c r="C85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
@@ -2644,12 +2563,14 @@
         <v>0</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>voter84</t>
+        </is>
       </c>
       <c r="B86" t="b">
         <v>0</v>
@@ -2658,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -2667,12 +2588,14 @@
         <v>0</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>voter85</t>
+        </is>
       </c>
       <c r="B87" t="b">
         <v>0</v>
@@ -2693,32 +2616,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="1" t="s">
-        <v>92</v>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>voter86</t>
+        </is>
       </c>
       <c r="B88" t="b">
         <v>0</v>
       </c>
       <c r="C88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>voter87</t>
+        </is>
       </c>
       <c r="B89" t="b">
         <v>1</v>
@@ -2730,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -2739,15 +2666,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1" t="s">
-        <v>94</v>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>voter88</t>
+        </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -2762,9 +2691,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
-        <v>95</v>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>voter89</t>
+        </is>
       </c>
       <c r="B91" t="b">
         <v>1</v>
@@ -2773,47 +2704,51 @@
         <v>1</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>voter90</t>
+        </is>
       </c>
       <c r="B92" t="b">
         <v>1</v>
       </c>
       <c r="C92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="1" t="s">
-        <v>97</v>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>voter91</t>
+        </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -2825,15 +2760,17 @@
         <v>1</v>
       </c>
       <c r="F93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>voter92</t>
+        </is>
       </c>
       <c r="B94" t="b">
         <v>1</v>
@@ -2845,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
@@ -2854,58 +2791,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="1" t="s">
-        <v>99</v>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>voter93</t>
+        </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>voter94</t>
+        </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="1" t="s">
-        <v>101</v>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>voter95</t>
+        </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -2917,18 +2860,20 @@
         <v>1</v>
       </c>
       <c r="F97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>voter96</t>
+        </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -2940,21 +2885,23 @@
         <v>1</v>
       </c>
       <c r="F98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>voter97</t>
+        </is>
       </c>
       <c r="B99" t="b">
         <v>1</v>
       </c>
       <c r="C99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -2969,12 +2916,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="1" t="s">
-        <v>104</v>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>voter98</t>
+        </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -2992,9 +2941,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="1" t="s">
-        <v>105</v>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>voter99</t>
+        </is>
       </c>
       <c r="B101" t="b">
         <v>1</v>
@@ -3003,19 +2954,19 @@
         <v>0</v>
       </c>
       <c r="D101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -482,13 +482,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -510,10 +510,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -523,19 +523,19 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -573,22 +573,22 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -623,22 +623,22 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -723,22 +723,22 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -751,13 +751,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -898,19 +898,19 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -998,19 +998,19 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1148,16 +1148,16 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1176,16 +1176,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -1232,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1251,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1301,16 +1301,16 @@
         <v>1</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -1373,16 +1373,16 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1426,13 +1426,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -1498,22 +1498,22 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1598,13 +1598,13 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1626,16 +1626,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -1698,19 +1698,19 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -1723,19 +1723,19 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1898,19 +1898,19 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -1948,22 +1948,22 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -2029,16 +2029,16 @@
         <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2079,16 +2079,16 @@
         <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
@@ -2123,19 +2123,19 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>1</v>
       </c>
       <c r="C69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2198,22 +2198,22 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2226,10 +2226,10 @@
         <v>1</v>
       </c>
       <c r="C72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -2257,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2276,19 +2276,19 @@
         <v>1</v>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2301,19 +2301,19 @@
         <v>1</v>
       </c>
       <c r="C75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2323,16 +2323,16 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2376,19 +2376,19 @@
         <v>1</v>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2407,13 +2407,13 @@
         <v>1</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2423,22 +2423,22 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2448,22 +2448,22 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -2507,10 +2507,10 @@
         <v>1</v>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2548,19 +2548,19 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -2607,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2623,13 +2623,13 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="C89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -2723,22 +2723,22 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2748,10 +2748,10 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -2798,16 +2798,16 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -2826,13 +2826,13 @@
         <v>0</v>
       </c>
       <c r="C96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
       </c>
       <c r="D97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2907,13 +2907,13 @@
         <v>0</v>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2923,13 +2923,13 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2951,10 +2951,10 @@
         <v>1</v>
       </c>
       <c r="C101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -1,37 +1,363 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+  <si>
+    <t>project0</t>
+  </si>
+  <si>
+    <t>project1</t>
+  </si>
+  <si>
+    <t>project2</t>
+  </si>
+  <si>
+    <t>project3</t>
+  </si>
+  <si>
+    <t>project4</t>
+  </si>
+  <si>
+    <t>project5</t>
+  </si>
+  <si>
+    <t>voter0</t>
+  </si>
+  <si>
+    <t>voter1</t>
+  </si>
+  <si>
+    <t>voter2</t>
+  </si>
+  <si>
+    <t>voter3</t>
+  </si>
+  <si>
+    <t>voter4</t>
+  </si>
+  <si>
+    <t>voter5</t>
+  </si>
+  <si>
+    <t>voter6</t>
+  </si>
+  <si>
+    <t>voter7</t>
+  </si>
+  <si>
+    <t>voter8</t>
+  </si>
+  <si>
+    <t>voter9</t>
+  </si>
+  <si>
+    <t>voter10</t>
+  </si>
+  <si>
+    <t>voter11</t>
+  </si>
+  <si>
+    <t>voter12</t>
+  </si>
+  <si>
+    <t>voter13</t>
+  </si>
+  <si>
+    <t>voter14</t>
+  </si>
+  <si>
+    <t>voter15</t>
+  </si>
+  <si>
+    <t>voter16</t>
+  </si>
+  <si>
+    <t>voter17</t>
+  </si>
+  <si>
+    <t>voter18</t>
+  </si>
+  <si>
+    <t>voter19</t>
+  </si>
+  <si>
+    <t>voter20</t>
+  </si>
+  <si>
+    <t>voter21</t>
+  </si>
+  <si>
+    <t>voter22</t>
+  </si>
+  <si>
+    <t>voter23</t>
+  </si>
+  <si>
+    <t>voter24</t>
+  </si>
+  <si>
+    <t>voter25</t>
+  </si>
+  <si>
+    <t>voter26</t>
+  </si>
+  <si>
+    <t>voter27</t>
+  </si>
+  <si>
+    <t>voter28</t>
+  </si>
+  <si>
+    <t>voter29</t>
+  </si>
+  <si>
+    <t>voter30</t>
+  </si>
+  <si>
+    <t>voter31</t>
+  </si>
+  <si>
+    <t>voter32</t>
+  </si>
+  <si>
+    <t>voter33</t>
+  </si>
+  <si>
+    <t>voter34</t>
+  </si>
+  <si>
+    <t>voter35</t>
+  </si>
+  <si>
+    <t>voter36</t>
+  </si>
+  <si>
+    <t>voter37</t>
+  </si>
+  <si>
+    <t>voter38</t>
+  </si>
+  <si>
+    <t>voter39</t>
+  </si>
+  <si>
+    <t>voter40</t>
+  </si>
+  <si>
+    <t>voter41</t>
+  </si>
+  <si>
+    <t>voter42</t>
+  </si>
+  <si>
+    <t>voter43</t>
+  </si>
+  <si>
+    <t>voter44</t>
+  </si>
+  <si>
+    <t>voter45</t>
+  </si>
+  <si>
+    <t>voter46</t>
+  </si>
+  <si>
+    <t>voter47</t>
+  </si>
+  <si>
+    <t>voter48</t>
+  </si>
+  <si>
+    <t>voter49</t>
+  </si>
+  <si>
+    <t>voter50</t>
+  </si>
+  <si>
+    <t>voter51</t>
+  </si>
+  <si>
+    <t>voter52</t>
+  </si>
+  <si>
+    <t>voter53</t>
+  </si>
+  <si>
+    <t>voter54</t>
+  </si>
+  <si>
+    <t>voter55</t>
+  </si>
+  <si>
+    <t>voter56</t>
+  </si>
+  <si>
+    <t>voter57</t>
+  </si>
+  <si>
+    <t>voter58</t>
+  </si>
+  <si>
+    <t>voter59</t>
+  </si>
+  <si>
+    <t>voter60</t>
+  </si>
+  <si>
+    <t>voter61</t>
+  </si>
+  <si>
+    <t>voter62</t>
+  </si>
+  <si>
+    <t>voter63</t>
+  </si>
+  <si>
+    <t>voter64</t>
+  </si>
+  <si>
+    <t>voter65</t>
+  </si>
+  <si>
+    <t>voter66</t>
+  </si>
+  <si>
+    <t>voter67</t>
+  </si>
+  <si>
+    <t>voter68</t>
+  </si>
+  <si>
+    <t>voter69</t>
+  </si>
+  <si>
+    <t>voter70</t>
+  </si>
+  <si>
+    <t>voter71</t>
+  </si>
+  <si>
+    <t>voter72</t>
+  </si>
+  <si>
+    <t>voter73</t>
+  </si>
+  <si>
+    <t>voter74</t>
+  </si>
+  <si>
+    <t>voter75</t>
+  </si>
+  <si>
+    <t>voter76</t>
+  </si>
+  <si>
+    <t>voter77</t>
+  </si>
+  <si>
+    <t>voter78</t>
+  </si>
+  <si>
+    <t>voter79</t>
+  </si>
+  <si>
+    <t>voter80</t>
+  </si>
+  <si>
+    <t>voter81</t>
+  </si>
+  <si>
+    <t>voter82</t>
+  </si>
+  <si>
+    <t>voter83</t>
+  </si>
+  <si>
+    <t>voter84</t>
+  </si>
+  <si>
+    <t>voter85</t>
+  </si>
+  <si>
+    <t>voter86</t>
+  </si>
+  <si>
+    <t>voter87</t>
+  </si>
+  <si>
+    <t>voter88</t>
+  </si>
+  <si>
+    <t>voter89</t>
+  </si>
+  <si>
+    <t>voter90</t>
+  </si>
+  <si>
+    <t>voter91</t>
+  </si>
+  <si>
+    <t>voter92</t>
+  </si>
+  <si>
+    <t>voter93</t>
+  </si>
+  <si>
+    <t>voter94</t>
+  </si>
+  <si>
+    <t>voter95</t>
+  </si>
+  <si>
+    <t>voter96</t>
+  </si>
+  <si>
+    <t>voter97</t>
+  </si>
+  <si>
+    <t>voter98</t>
+  </si>
+  <si>
+    <t>voter99</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +372,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -421,56 +688,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>project0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>project1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>project2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>project3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>project4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>project5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>voter0</t>
-        </is>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -485,17 +732,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>voter1</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -504,76 +749,70 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>voter2</t>
-        </is>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>voter3</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>voter4</t>
-        </is>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -588,14 +827,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>voter5</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -604,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -613,20 +850,18 @@
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>voter6</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -638,17 +873,15 @@
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>voter7</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -657,20 +890,18 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>voter8</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -682,26 +913,24 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>voter9</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -716,14 +945,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>voter10</t>
-        </is>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -732,26 +959,24 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>voter11</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -763,20 +988,18 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>voter12</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -791,20 +1014,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>voter13</t>
-        </is>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -816,11 +1037,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>voter14</t>
-        </is>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -841,70 +1060,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>voter15</t>
-        </is>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>voter16</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>voter17</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -913,20 +1126,18 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>voter18</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -941,14 +1152,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>voter19</t>
-        </is>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -960,67 +1169,61 @@
         <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>voter20</t>
-        </is>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>voter21</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>voter22</t>
-        </is>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -1029,32 +1232,30 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>voter23</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1063,51 +1264,47 @@
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>voter24</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>voter25</t>
-        </is>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1116,11 +1313,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>voter26</t>
-        </is>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -1135,29 +1330,27 @@
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>voter27</t>
-        </is>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1166,39 +1359,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>voter28</t>
-        </is>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>voter29</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -1207,57 +1396,53 @@
         <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>voter30</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>voter31</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1266,11 +1451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>voter32</t>
-        </is>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -1291,36 +1474,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>voter33</t>
-        </is>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>voter34</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -1341,14 +1520,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>voter35</t>
-        </is>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -1357,57 +1534,53 @@
         <v>0</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>voter36</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>voter37</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1416,36 +1589,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>voter38</t>
-        </is>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>voter39</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
@@ -1454,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1463,39 +1632,35 @@
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>voter40</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>voter41</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B43" t="b">
         <v>0</v>
@@ -1507,76 +1672,70 @@
         <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>voter42</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B44" t="b">
         <v>0</v>
       </c>
       <c r="C44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>voter43</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>voter44</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1585,79 +1744,73 @@
         <v>0</v>
       </c>
       <c r="F46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>voter45</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>voter46</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>voter47</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1666,14 +1819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>voter48</t>
-        </is>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -1682,23 +1833,21 @@
         <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>voter49</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -1716,42 +1865,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>voter50</t>
-        </is>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B52" t="b">
         <v>0</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>voter51</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
       </c>
       <c r="C53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -1763,26 +1908,24 @@
         <v>0</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>voter52</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -1791,23 +1934,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>voter53</t>
-        </is>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B55" t="b">
         <v>0</v>
       </c>
       <c r="C55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -1816,36 +1957,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>voter54</t>
-        </is>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>voter55</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -1854,23 +1991,21 @@
         <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>voter56</t>
-        </is>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B58" t="b">
         <v>0</v>
@@ -1888,26 +2023,24 @@
         <v>0</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>voter57</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -1916,11 +2049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>voter58</t>
-        </is>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
@@ -1929,173 +2060,159 @@
         <v>1</v>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>voter59</t>
-        </is>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>voter60</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>voter61</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B63" t="b">
         <v>0</v>
       </c>
       <c r="C63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>voter62</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>voter63</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>voter64</t>
-        </is>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>voter65</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B67" t="b">
         <v>0</v>
@@ -2116,136 +2233,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>voter66</t>
-        </is>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>voter67</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>voter68</t>
-        </is>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>voter69</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>voter70</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
       </c>
       <c r="C72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>voter71</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B73" t="b">
         <v>0</v>
@@ -2266,39 +2371,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>voter72</t>
-        </is>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>voter73</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -2316,11 +2417,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>voter74</t>
-        </is>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -2329,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -2341,36 +2440,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>voter75</t>
-        </is>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B77" t="b">
         <v>0</v>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>voter76</t>
-        </is>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
@@ -2385,26 +2480,24 @@
         <v>1</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>voter77</t>
-        </is>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
       </c>
       <c r="C79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
@@ -2416,117 +2509,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>voter78</t>
-        </is>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B80" t="b">
         <v>0</v>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>voter79</t>
-        </is>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>voter80</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>voter81</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>voter82</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -2538,39 +2621,35 @@
         <v>0</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>voter83</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B85" t="b">
         <v>1</v>
       </c>
       <c r="C85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>voter84</t>
-        </is>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B86" t="b">
         <v>0</v>
@@ -2579,29 +2658,27 @@
         <v>0</v>
       </c>
       <c r="D86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>voter85</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -2610,70 +2687,64 @@
         <v>1</v>
       </c>
       <c r="F87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>voter86</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B88" t="b">
         <v>0</v>
       </c>
       <c r="C88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>voter87</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B89" t="b">
         <v>1</v>
       </c>
       <c r="C89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>voter88</t>
-        </is>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -2685,17 +2756,15 @@
         <v>0</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>voter89</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B91" t="b">
         <v>1</v>
@@ -2704,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
         <v>1</v>
@@ -2716,17 +2785,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>voter90</t>
-        </is>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B92" t="b">
         <v>1</v>
       </c>
       <c r="C92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -2741,23 +2808,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>voter91</t>
-        </is>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B93" t="b">
         <v>0</v>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -2766,17 +2831,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>voter92</t>
-        </is>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -2785,17 +2848,15 @@
         <v>0</v>
       </c>
       <c r="F94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>voter93</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B95" t="b">
         <v>0</v>
@@ -2810,23 +2871,21 @@
         <v>0</v>
       </c>
       <c r="F95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>voter94</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B96" t="b">
         <v>0</v>
       </c>
       <c r="C96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -2841,14 +2900,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>voter95</t>
-        </is>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -2866,61 +2923,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>voter96</t>
-        </is>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>voter97</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>voter98</t>
-        </is>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B100" t="b">
         <v>1</v>
@@ -2929,44 +2980,42 @@
         <v>1</v>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>voter99</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B101" t="b">
         <v>1</v>
       </c>
       <c r="C101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -720,13 +720,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -769,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -789,19 +789,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -812,22 +812,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -835,13 +835,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -861,13 +861,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -881,7 +881,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -890,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -907,19 +907,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -933,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -973,13 +973,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -996,19 +996,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1045,19 +1045,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1097,13 +1097,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1111,13 +1111,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1134,10 +1134,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1209,13 +1209,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1235,13 +1235,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1249,19 +1249,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -1272,13 +1272,13 @@
         <v>30</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1318,22 +1318,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1341,10 +1341,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1364,7 +1364,7 @@
         <v>34</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1390,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -1410,10 +1410,10 @@
         <v>36</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -1422,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -1456,22 +1456,22 @@
         <v>38</v>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1479,22 +1479,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1502,13 +1502,13 @@
         <v>40</v>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1528,10 +1528,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>42</v>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1571,19 +1571,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -1597,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -1617,13 +1617,13 @@
         <v>45</v>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1686,19 +1686,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1778,7 +1778,7 @@
         <v>52</v>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1847,7 +1847,7 @@
         <v>55</v>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -1870,19 +1870,19 @@
         <v>56</v>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -1893,10 +1893,10 @@
         <v>57</v>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1945,13 +1945,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -1962,22 +1962,22 @@
         <v>60</v>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1991,16 +1991,16 @@
         <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -2034,16 +2034,16 @@
         <v>0</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -2057,16 +2057,16 @@
         <v>1</v>
       </c>
       <c r="C60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -2077,7 +2077,7 @@
         <v>65</v>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -2100,22 +2100,22 @@
         <v>66</v>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2123,22 +2123,22 @@
         <v>67</v>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2146,22 +2146,22 @@
         <v>68</v>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="D64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -2192,19 +2192,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         <v>72</v>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
@@ -2261,7 +2261,7 @@
         <v>73</v>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>74</v>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>75</v>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -2319,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2356,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="C73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -2405,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2428,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -2445,10 +2445,10 @@
         <v>81</v>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -2468,13 +2468,13 @@
         <v>82</v>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2491,7 +2491,7 @@
         <v>83</v>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -2520,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2560,13 +2560,13 @@
         <v>86</v>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2583,22 +2583,22 @@
         <v>87</v>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2606,7 +2606,7 @@
         <v>88</v>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -2629,10 +2629,10 @@
         <v>89</v>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2652,13 +2652,13 @@
         <v>90</v>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
         <v>1</v>
@@ -2678,19 +2678,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>93</v>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
@@ -2744,7 +2744,7 @@
         <v>94</v>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2767,13 +2767,13 @@
         <v>95</v>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
         <v>1</v>
@@ -2796,16 +2796,16 @@
         <v>1</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2836,16 +2836,16 @@
         <v>98</v>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -2862,19 +2862,19 @@
         <v>0</v>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2882,22 +2882,22 @@
         <v>100</v>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2908,19 +2908,19 @@
         <v>0</v>
       </c>
       <c r="C97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2974,22 +2974,22 @@
         <v>104</v>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3000,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -3009,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="F101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -1,93 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>project0</t>
-  </si>
-  <si>
-    <t>project1</t>
-  </si>
-  <si>
-    <t>project2</t>
-  </si>
-  <si>
-    <t>project3</t>
-  </si>
-  <si>
-    <t>project4</t>
-  </si>
-  <si>
-    <t>project5</t>
-  </si>
-  <si>
-    <t>voter0</t>
-  </si>
-  <si>
-    <t>voter1</t>
-  </si>
-  <si>
-    <t>voter2</t>
-  </si>
-  <si>
-    <t>voter3</t>
-  </si>
-  <si>
-    <t>voter4</t>
-  </si>
-  <si>
-    <t>voter5</t>
-  </si>
-  <si>
-    <t>voter6</t>
-  </si>
-  <si>
-    <t>voter7</t>
-  </si>
-  <si>
-    <t>voter8</t>
-  </si>
-  <si>
-    <t>voter9</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,35 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,59 +421,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>project0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>project1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>project2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>project3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>project4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>project5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>voter0</t>
+        </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>voter1</t>
+        </is>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -482,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -491,9 +516,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>voter2</t>
+        </is>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -502,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -514,15 +541,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>voter3</t>
+        </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -537,32 +566,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>voter4</t>
+        </is>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>voter5</t>
+        </is>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -577,15 +610,17 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>voter6</t>
+        </is>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -594,79 +629,85 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>voter7</t>
+        </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>voter8</t>
+        </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>voter9</t>
+        </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -676,6 +717,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -473,22 +473,22 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -504,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -548,22 +548,22 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -576,19 +576,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -604,13 +604,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>

--- a/threshold_approval.xlsx
+++ b/threshold_approval.xlsx
@@ -1,120 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>project0</t>
-  </si>
-  <si>
-    <t>project1</t>
-  </si>
-  <si>
-    <t>project2</t>
-  </si>
-  <si>
-    <t>project3</t>
-  </si>
-  <si>
-    <t>project4</t>
-  </si>
-  <si>
-    <t>project5</t>
-  </si>
-  <si>
-    <t>project6</t>
-  </si>
-  <si>
-    <t>project7</t>
-  </si>
-  <si>
-    <t>project8</t>
-  </si>
-  <si>
-    <t>project9</t>
-  </si>
-  <si>
-    <t>project10</t>
-  </si>
-  <si>
-    <t>project11</t>
-  </si>
-  <si>
-    <t>project12</t>
-  </si>
-  <si>
-    <t>project13</t>
-  </si>
-  <si>
-    <t>project14</t>
-  </si>
-  <si>
-    <t>voter0</t>
-  </si>
-  <si>
-    <t>voter1</t>
-  </si>
-  <si>
-    <t>voter2</t>
-  </si>
-  <si>
-    <t>voter3</t>
-  </si>
-  <si>
-    <t>voter4</t>
-  </si>
-  <si>
-    <t>voter5</t>
-  </si>
-  <si>
-    <t>voter6</t>
-  </si>
-  <si>
-    <t>voter7</t>
-  </si>
-  <si>
-    <t>voter8</t>
-  </si>
-  <si>
-    <t>voter9</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -129,35 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,63 +421,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>project0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>project1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>project2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>project3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>project4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>project5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>project6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>project7</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>project8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>project9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>project10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>project11</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>project12</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>project13</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>project14</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>voter0</t>
+        </is>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -513,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -534,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -543,18 +557,20 @@
         <v>1</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>voter1</t>
+        </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -563,31 +579,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -596,27 +612,29 @@
         <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>voter2</t>
+        </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -625,16 +643,16 @@
         <v>1</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -646,62 +664,66 @@
         <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>voter3</t>
+        </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>voter4</t>
+        </is>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -713,10 +735,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -725,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -734,51 +756,53 @@
         <v>1</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>voter5</t>
+        </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -790,48 +814,50 @@
         <v>1</v>
       </c>
       <c r="N7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>voter6</t>
+        </is>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -840,36 +866,38 @@
         <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>voter7</t>
+        </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -878,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -896,39 +924,41 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>voter8</t>
+        </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -940,30 +970,32 @@
         <v>1</v>
       </c>
       <c r="N10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>voter9</t>
+        </is>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -990,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1000,6 +1032,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>